--- a/script/.database/Novembro-2024.xlsx
+++ b/script/.database/Novembro-2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Almoxarifado suprimentos\Suprimentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\PCP\CLAUDIO\VS_CD\dash\DashBoard_cd\script\.database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B6AA41-01BE-4BAF-BB33-E6E95D911C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2196D0-398C-44F4-ACCC-D8661799C58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{206D94FF-8DD9-460F-9052-07E07C6EA2D8}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{206D94FF-8DD9-460F-9052-07E07C6EA2D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -1148,77 +1148,7 @@
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
     <cellStyle name="Vírgula 2 3" xfId="2" xr:uid="{D464673A-692A-4B68-AAA0-4458BA1E072D}"/>
   </cellStyles>
-  <dxfs count="119">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="109">
     <dxf>
       <fill>
         <patternFill>
@@ -2322,11 +2252,11 @@
   <dimension ref="A1:WZG553"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
-      <selection pane="bottomRight" activeCell="W3" sqref="W3"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2336,8 +2266,8 @@
     <col min="4" max="4" width="70.85546875" style="46" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" style="47" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="27" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="10" max="39" width="9.42578125" style="27" customWidth="1"/>
     <col min="40" max="40" width="15.7109375" style="27" customWidth="1"/>
     <col min="41" max="41" width="12.42578125" style="1" customWidth="1"/>
@@ -2868,16 +2798,11 @@
       <c r="AR3" s="25"/>
       <c r="AS3" s="6"/>
       <c r="AT3" s="6"/>
-      <c r="AU3" s="25">
-        <v>12500</v>
-      </c>
+      <c r="AU3" s="25"/>
       <c r="AV3" s="25"/>
       <c r="AW3" s="25"/>
       <c r="AX3" s="25"/>
-      <c r="AY3" s="25">
-        <f>12500+12500</f>
-        <v>25000</v>
-      </c>
+      <c r="AY3" s="25"/>
       <c r="AZ3" s="26"/>
       <c r="BA3" s="6"/>
       <c r="BB3" s="25"/>
@@ -3351,9 +3276,7 @@
       <c r="AZ7" s="26"/>
       <c r="BA7" s="6"/>
       <c r="BB7" s="25"/>
-      <c r="BC7" s="25">
-        <v>1250</v>
-      </c>
+      <c r="BC7" s="25"/>
       <c r="BD7" s="25"/>
       <c r="BE7" s="25"/>
       <c r="BF7" s="25"/>
@@ -3587,9 +3510,7 @@
       <c r="AR9" s="25"/>
       <c r="AS9" s="6"/>
       <c r="AT9" s="6"/>
-      <c r="AU9" s="25">
-        <v>500</v>
-      </c>
+      <c r="AU9" s="25"/>
       <c r="AV9" s="25"/>
       <c r="AW9" s="25"/>
       <c r="AX9" s="25"/>
@@ -3710,9 +3631,7 @@
       <c r="AR10" s="25"/>
       <c r="AS10" s="6"/>
       <c r="AT10" s="6"/>
-      <c r="AU10" s="25">
-        <v>500</v>
-      </c>
+      <c r="AU10" s="25"/>
       <c r="AV10" s="25"/>
       <c r="AW10" s="25"/>
       <c r="AX10" s="25"/>
@@ -3833,9 +3752,7 @@
       <c r="AR11" s="25"/>
       <c r="AS11" s="6"/>
       <c r="AT11" s="6"/>
-      <c r="AU11" s="25">
-        <v>400</v>
-      </c>
+      <c r="AU11" s="25"/>
       <c r="AV11" s="25"/>
       <c r="AW11" s="25"/>
       <c r="AX11" s="25"/>
@@ -3956,9 +3873,7 @@
       <c r="AR12" s="25"/>
       <c r="AS12" s="6"/>
       <c r="AT12" s="6"/>
-      <c r="AU12" s="25">
-        <v>200</v>
-      </c>
+      <c r="AU12" s="25"/>
       <c r="AV12" s="25"/>
       <c r="AW12" s="25"/>
       <c r="AX12" s="25"/>
@@ -4079,9 +3994,7 @@
       <c r="AR13" s="25"/>
       <c r="AS13" s="6"/>
       <c r="AT13" s="6"/>
-      <c r="AU13" s="25">
-        <v>200</v>
-      </c>
+      <c r="AU13" s="25"/>
       <c r="AV13" s="25"/>
       <c r="AW13" s="25"/>
       <c r="AX13" s="25"/>
@@ -4089,9 +4002,7 @@
       <c r="AZ13" s="26"/>
       <c r="BA13" s="6"/>
       <c r="BB13" s="25"/>
-      <c r="BC13" s="25">
-        <v>300</v>
-      </c>
+      <c r="BC13" s="25"/>
       <c r="BD13" s="25"/>
       <c r="BE13" s="25"/>
       <c r="BF13" s="25"/>
@@ -4213,9 +4124,7 @@
       <c r="AZ14" s="26"/>
       <c r="BA14" s="6"/>
       <c r="BB14" s="25"/>
-      <c r="BC14" s="25">
-        <v>300</v>
-      </c>
+      <c r="BC14" s="25"/>
       <c r="BD14" s="25"/>
       <c r="BE14" s="25"/>
       <c r="BF14" s="25"/>
@@ -4440,20 +4349,14 @@
       <c r="AS16" s="6"/>
       <c r="AT16" s="6"/>
       <c r="AU16" s="25"/>
-      <c r="AV16" s="25">
-        <v>12000</v>
-      </c>
+      <c r="AV16" s="25"/>
       <c r="AW16" s="25"/>
       <c r="AX16" s="25"/>
-      <c r="AY16" s="25">
-        <v>12000</v>
-      </c>
+      <c r="AY16" s="25"/>
       <c r="AZ16" s="26"/>
       <c r="BA16" s="6"/>
       <c r="BB16" s="25"/>
-      <c r="BC16" s="25">
-        <v>12600</v>
-      </c>
+      <c r="BC16" s="25"/>
       <c r="BD16" s="25"/>
       <c r="BE16" s="25"/>
       <c r="BF16" s="25"/>
@@ -4910,9 +4813,7 @@
       <c r="AV20" s="25"/>
       <c r="AW20" s="25"/>
       <c r="AX20" s="25"/>
-      <c r="AY20" s="25">
-        <v>5000</v>
-      </c>
+      <c r="AY20" s="25"/>
       <c r="AZ20" s="26"/>
       <c r="BA20" s="6"/>
       <c r="BB20" s="25"/>
@@ -5030,9 +4931,7 @@
       <c r="AY21" s="25"/>
       <c r="AZ21" s="26"/>
       <c r="BA21" s="6"/>
-      <c r="BB21" s="25">
-        <v>1250</v>
-      </c>
+      <c r="BB21" s="25"/>
       <c r="BC21" s="25"/>
       <c r="BD21" s="25"/>
       <c r="BE21" s="25"/>
@@ -5268,9 +5167,7 @@
       <c r="AU23" s="25"/>
       <c r="AV23" s="25"/>
       <c r="AW23" s="25"/>
-      <c r="AX23" s="25">
-        <v>6300</v>
-      </c>
+      <c r="AX23" s="25"/>
       <c r="AY23" s="25"/>
       <c r="AZ23" s="26"/>
       <c r="BA23" s="6"/>
@@ -5504,10 +5401,7 @@
       <c r="BA25" s="6"/>
       <c r="BB25" s="25"/>
       <c r="BC25" s="25"/>
-      <c r="BD25" s="25">
-        <f>15000+15000</f>
-        <v>30000</v>
-      </c>
+      <c r="BD25" s="25"/>
       <c r="BE25" s="25"/>
       <c r="BF25" s="25"/>
       <c r="BG25" s="6"/>
@@ -5981,9 +5875,7 @@
       <c r="AS29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="25"/>
-      <c r="AV29" s="25">
-        <v>12600</v>
-      </c>
+      <c r="AV29" s="25"/>
       <c r="AW29" s="25"/>
       <c r="AX29" s="25"/>
       <c r="AY29" s="25"/>
@@ -5991,9 +5883,7 @@
       <c r="BA29" s="6"/>
       <c r="BB29" s="25"/>
       <c r="BC29" s="25"/>
-      <c r="BD29" s="25">
-        <v>15000</v>
-      </c>
+      <c r="BD29" s="25"/>
       <c r="BE29" s="25"/>
       <c r="BF29" s="25"/>
       <c r="BG29" s="6"/>
@@ -6105,20 +5995,14 @@
       <c r="AR30" s="25"/>
       <c r="AS30" s="6"/>
       <c r="AT30" s="6"/>
-      <c r="AU30" s="25">
-        <v>12600</v>
-      </c>
+      <c r="AU30" s="25"/>
       <c r="AV30" s="25"/>
       <c r="AW30" s="25"/>
-      <c r="AX30" s="25">
-        <v>12600</v>
-      </c>
+      <c r="AX30" s="25"/>
       <c r="AY30" s="25"/>
       <c r="AZ30" s="26"/>
       <c r="BA30" s="6"/>
-      <c r="BB30" s="25">
-        <v>12600</v>
-      </c>
+      <c r="BB30" s="25"/>
       <c r="BC30" s="25"/>
       <c r="BD30" s="25"/>
       <c r="BE30" s="25"/>
@@ -6231,21 +6115,15 @@
       <c r="AS31" s="6"/>
       <c r="AT31" s="6"/>
       <c r="AU31" s="25"/>
-      <c r="AV31" s="25">
-        <v>12600</v>
-      </c>
+      <c r="AV31" s="25"/>
       <c r="AW31" s="25"/>
       <c r="AX31" s="25"/>
-      <c r="AY31" s="25">
-        <v>12600</v>
-      </c>
+      <c r="AY31" s="25"/>
       <c r="AZ31" s="26"/>
       <c r="BA31" s="6"/>
       <c r="BB31" s="25"/>
       <c r="BC31" s="25"/>
-      <c r="BD31" s="25">
-        <v>12600</v>
-      </c>
+      <c r="BD31" s="25"/>
       <c r="BE31" s="25"/>
       <c r="BF31" s="25"/>
       <c r="BG31" s="6"/>
@@ -6358,15 +6236,11 @@
       <c r="AS32" s="6"/>
       <c r="AT32" s="6"/>
       <c r="AU32" s="25"/>
-      <c r="AV32" s="25">
-        <v>12600</v>
-      </c>
+      <c r="AV32" s="25"/>
       <c r="AW32" s="25"/>
       <c r="AX32" s="25"/>
       <c r="AY32" s="25"/>
-      <c r="AZ32" s="25">
-        <v>12500</v>
-      </c>
+      <c r="AZ32" s="25"/>
       <c r="BA32" s="6"/>
       <c r="BB32" s="25"/>
       <c r="BC32" s="25"/>
@@ -6954,19 +6828,13 @@
       <c r="AU37" s="25"/>
       <c r="AV37" s="25"/>
       <c r="AW37" s="25"/>
-      <c r="AX37" s="25">
-        <v>1000</v>
-      </c>
+      <c r="AX37" s="25"/>
       <c r="AY37" s="25"/>
       <c r="AZ37" s="26"/>
       <c r="BA37" s="6"/>
       <c r="BB37" s="25"/>
-      <c r="BC37" s="25">
-        <v>1000</v>
-      </c>
-      <c r="BD37" s="25">
-        <v>1000</v>
-      </c>
+      <c r="BC37" s="25"/>
+      <c r="BD37" s="25"/>
       <c r="BE37" s="25"/>
       <c r="BF37" s="25"/>
       <c r="BG37" s="6"/>
@@ -7206,9 +7074,7 @@
       <c r="BA39" s="6"/>
       <c r="BB39" s="25"/>
       <c r="BC39" s="25"/>
-      <c r="BD39" s="25">
-        <v>150</v>
-      </c>
+      <c r="BD39" s="25"/>
       <c r="BE39" s="25"/>
       <c r="BF39" s="25"/>
       <c r="BG39" s="6"/>
@@ -7444,9 +7310,7 @@
       <c r="BA41" s="6"/>
       <c r="BB41" s="25"/>
       <c r="BC41" s="25"/>
-      <c r="BD41" s="25">
-        <v>150</v>
-      </c>
+      <c r="BD41" s="25"/>
       <c r="BE41" s="25"/>
       <c r="BF41" s="25"/>
       <c r="BG41" s="6"/>
@@ -10859,9 +10723,7 @@
       <c r="AU71" s="25"/>
       <c r="AV71" s="25"/>
       <c r="AW71" s="25"/>
-      <c r="AX71" s="25">
-        <v>301.95</v>
-      </c>
+      <c r="AX71" s="25"/>
       <c r="AY71" s="25"/>
       <c r="AZ71" s="26"/>
       <c r="BA71" s="6"/>
@@ -11322,38 +11184,19 @@
       <c r="AO75" s="24"/>
       <c r="AP75" s="24"/>
       <c r="AQ75" s="24"/>
-      <c r="AR75" s="25">
-        <v>25014</v>
-      </c>
+      <c r="AR75" s="25"/>
       <c r="AS75" s="6"/>
       <c r="AT75" s="6"/>
       <c r="AU75" s="25"/>
       <c r="AV75" s="25"/>
-      <c r="AW75" s="25">
-        <v>29672</v>
-      </c>
-      <c r="AX75" s="25">
-        <f>34022+32942</f>
-        <v>66964</v>
-      </c>
-      <c r="AY75" s="25">
-        <f>34199+33913</f>
-        <v>68112</v>
-      </c>
-      <c r="AZ75" s="25">
-        <f>31991+29965</f>
-        <v>61956</v>
-      </c>
+      <c r="AW75" s="25"/>
+      <c r="AX75" s="25"/>
+      <c r="AY75" s="25"/>
+      <c r="AZ75" s="25"/>
       <c r="BA75" s="6"/>
       <c r="BB75" s="25"/>
-      <c r="BC75" s="25">
-        <f>34245+32884</f>
-        <v>67129</v>
-      </c>
-      <c r="BD75" s="25">
-        <f>33858+33125</f>
-        <v>66983</v>
-      </c>
+      <c r="BC75" s="25"/>
+      <c r="BD75" s="25"/>
       <c r="BE75" s="25"/>
       <c r="BF75" s="25"/>
       <c r="BG75" s="6"/>
@@ -11449,10 +11292,7 @@
       <c r="AR76" s="25"/>
       <c r="AS76" s="6"/>
       <c r="AT76" s="6"/>
-      <c r="AU76" s="25">
-        <f>12019.5+1042</f>
-        <v>13061.5</v>
-      </c>
+      <c r="AU76" s="25"/>
       <c r="AV76" s="25"/>
       <c r="AW76" s="25"/>
       <c r="AX76" s="25"/>
@@ -11803,24 +11643,15 @@
       <c r="AR79" s="25"/>
       <c r="AS79" s="6"/>
       <c r="AT79" s="6"/>
-      <c r="AU79" s="25">
-        <v>25160</v>
-      </c>
-      <c r="AV79" s="25">
-        <v>25087</v>
-      </c>
+      <c r="AU79" s="25"/>
+      <c r="AV79" s="25"/>
       <c r="AW79" s="25"/>
       <c r="AX79" s="25"/>
-      <c r="AY79" s="25">
-        <f>24430.6+24425.6</f>
-        <v>48856.2</v>
-      </c>
+      <c r="AY79" s="25"/>
       <c r="AZ79" s="26"/>
       <c r="BA79" s="6"/>
       <c r="BB79" s="25"/>
-      <c r="BC79" s="25">
-        <v>24482.6</v>
-      </c>
+      <c r="BC79" s="25"/>
       <c r="BD79" s="25"/>
       <c r="BE79" s="25"/>
       <c r="BF79" s="25"/>
@@ -12054,14 +11885,10 @@
       <c r="AR81" s="25"/>
       <c r="AS81" s="6"/>
       <c r="AT81" s="6"/>
-      <c r="AU81" s="25">
-        <v>22876</v>
-      </c>
+      <c r="AU81" s="25"/>
       <c r="AV81" s="25"/>
       <c r="AW81" s="25"/>
-      <c r="AX81" s="25">
-        <v>24809</v>
-      </c>
+      <c r="AX81" s="25"/>
       <c r="AY81" s="25"/>
       <c r="AZ81" s="26"/>
       <c r="BA81" s="6"/>
@@ -12275,15 +12102,11 @@
       <c r="AV83" s="25"/>
       <c r="AW83" s="25"/>
       <c r="AX83" s="25"/>
-      <c r="AY83" s="25">
-        <v>10209</v>
-      </c>
+      <c r="AY83" s="25"/>
       <c r="AZ83" s="26"/>
       <c r="BA83" s="6"/>
       <c r="BB83" s="25"/>
-      <c r="BC83" s="25">
-        <v>12551.8</v>
-      </c>
+      <c r="BC83" s="25"/>
       <c r="BD83" s="25"/>
       <c r="BE83" s="25"/>
       <c r="BF83" s="25"/>
@@ -12386,9 +12209,7 @@
       <c r="AR84" s="25"/>
       <c r="AS84" s="6"/>
       <c r="AT84" s="6"/>
-      <c r="AU84" s="25">
-        <v>574</v>
-      </c>
+      <c r="AU84" s="25"/>
       <c r="AV84" s="25"/>
       <c r="AW84" s="25"/>
       <c r="AX84" s="25"/>
@@ -12499,10 +12320,7 @@
       <c r="AR85" s="25"/>
       <c r="AS85" s="6"/>
       <c r="AT85" s="6"/>
-      <c r="AU85" s="25">
-        <f>1544+1582</f>
-        <v>3126</v>
-      </c>
+      <c r="AU85" s="25"/>
       <c r="AV85" s="25"/>
       <c r="AW85" s="25"/>
       <c r="AX85" s="25"/>
@@ -14485,9 +14303,7 @@
       <c r="AR102" s="25"/>
       <c r="AS102" s="6"/>
       <c r="AT102" s="6"/>
-      <c r="AU102" s="25">
-        <v>89.4</v>
-      </c>
+      <c r="AU102" s="25"/>
       <c r="AV102" s="25"/>
       <c r="AW102" s="25"/>
       <c r="AX102" s="25"/>
@@ -15328,9 +15144,7 @@
       <c r="AR109" s="25"/>
       <c r="AS109" s="6"/>
       <c r="AT109" s="6"/>
-      <c r="AU109" s="25">
-        <v>167.85</v>
-      </c>
+      <c r="AU109" s="25"/>
       <c r="AV109" s="25"/>
       <c r="AW109" s="25"/>
       <c r="AX109" s="25"/>
@@ -15569,9 +15383,7 @@
       <c r="AY111" s="25"/>
       <c r="AZ111" s="26"/>
       <c r="BA111" s="6"/>
-      <c r="BB111" s="25">
-        <v>6</v>
-      </c>
+      <c r="BB111" s="25"/>
       <c r="BC111" s="25"/>
       <c r="BD111" s="25"/>
       <c r="BE111" s="25"/>
@@ -15682,9 +15494,7 @@
       <c r="AY112" s="25"/>
       <c r="AZ112" s="26"/>
       <c r="BA112" s="6"/>
-      <c r="BB112" s="25">
-        <v>5</v>
-      </c>
+      <c r="BB112" s="25"/>
       <c r="BC112" s="25"/>
       <c r="BD112" s="25"/>
       <c r="BE112" s="25"/>
@@ -15795,9 +15605,7 @@
       <c r="AY113" s="25"/>
       <c r="AZ113" s="26"/>
       <c r="BA113" s="6"/>
-      <c r="BB113" s="25">
-        <v>10</v>
-      </c>
+      <c r="BB113" s="25"/>
       <c r="BC113" s="25"/>
       <c r="BD113" s="25"/>
       <c r="BE113" s="25"/>
@@ -15902,9 +15710,7 @@
       <c r="AS114" s="6"/>
       <c r="AT114" s="6"/>
       <c r="AU114" s="25"/>
-      <c r="AV114" s="25">
-        <v>15</v>
-      </c>
+      <c r="AV114" s="25"/>
       <c r="AW114" s="25"/>
       <c r="AX114" s="25"/>
       <c r="AY114" s="25"/>
@@ -16014,9 +15820,7 @@
       <c r="AR115" s="25"/>
       <c r="AS115" s="6"/>
       <c r="AT115" s="6"/>
-      <c r="AU115" s="25">
-        <v>108</v>
-      </c>
+      <c r="AU115" s="25"/>
       <c r="AV115" s="25"/>
       <c r="AW115" s="25"/>
       <c r="AX115" s="25"/>
@@ -16128,9 +15932,7 @@
       <c r="AS116" s="6"/>
       <c r="AT116" s="6"/>
       <c r="AU116" s="25"/>
-      <c r="AV116" s="25">
-        <v>3</v>
-      </c>
+      <c r="AV116" s="25"/>
       <c r="AW116" s="25"/>
       <c r="AX116" s="25"/>
       <c r="AY116" s="25"/>
@@ -16352,9 +16154,7 @@
       <c r="AS118" s="6"/>
       <c r="AT118" s="6"/>
       <c r="AU118" s="25"/>
-      <c r="AV118" s="25">
-        <v>2</v>
-      </c>
+      <c r="AV118" s="25"/>
       <c r="AW118" s="25"/>
       <c r="AX118" s="25"/>
       <c r="AY118" s="25"/>
@@ -18148,10 +17948,7 @@
       <c r="AS133" s="6"/>
       <c r="AT133" s="6"/>
       <c r="AU133" s="25"/>
-      <c r="AV133" s="25">
-        <f>5000+5760</f>
-        <v>10760</v>
-      </c>
+      <c r="AV133" s="25"/>
       <c r="AW133" s="25"/>
       <c r="AX133" s="25"/>
       <c r="AY133" s="25"/>
@@ -18272,10 +18069,7 @@
       <c r="AS134" s="6"/>
       <c r="AT134" s="6"/>
       <c r="AU134" s="25"/>
-      <c r="AV134" s="25">
-        <f>7500+5100</f>
-        <v>12600</v>
-      </c>
+      <c r="AV134" s="25"/>
       <c r="AW134" s="25"/>
       <c r="AX134" s="25"/>
       <c r="AY134" s="25"/>
@@ -18396,9 +18190,7 @@
       <c r="AS135" s="6"/>
       <c r="AT135" s="6"/>
       <c r="AU135" s="25"/>
-      <c r="AV135" s="25">
-        <v>4840</v>
-      </c>
+      <c r="AV135" s="25"/>
       <c r="AW135" s="25"/>
       <c r="AX135" s="25"/>
       <c r="AY135" s="25"/>
@@ -18519,9 +18311,7 @@
       <c r="AS136" s="6"/>
       <c r="AT136" s="6"/>
       <c r="AU136" s="25"/>
-      <c r="AV136" s="25">
-        <v>2000</v>
-      </c>
+      <c r="AV136" s="25"/>
       <c r="AW136" s="25"/>
       <c r="AX136" s="25"/>
       <c r="AY136" s="25"/>
@@ -18634,9 +18424,7 @@
       <c r="AT137" s="6"/>
       <c r="AU137" s="25"/>
       <c r="AV137" s="25"/>
-      <c r="AW137" s="25">
-        <v>75</v>
-      </c>
+      <c r="AW137" s="25"/>
       <c r="AX137" s="25"/>
       <c r="AY137" s="25"/>
       <c r="AZ137" s="26"/>
@@ -18746,26 +18534,16 @@
       <c r="AR138" s="25"/>
       <c r="AS138" s="6"/>
       <c r="AT138" s="6"/>
-      <c r="AU138" s="25">
-        <v>72</v>
-      </c>
-      <c r="AV138" s="25">
-        <v>144</v>
-      </c>
+      <c r="AU138" s="25"/>
+      <c r="AV138" s="25"/>
       <c r="AW138" s="25"/>
-      <c r="AX138" s="25">
-        <v>72</v>
-      </c>
+      <c r="AX138" s="25"/>
       <c r="AY138" s="25"/>
       <c r="AZ138" s="26"/>
       <c r="BA138" s="6"/>
-      <c r="BB138" s="25">
-        <v>72</v>
-      </c>
+      <c r="BB138" s="25"/>
       <c r="BC138" s="25"/>
-      <c r="BD138" s="25">
-        <v>72</v>
-      </c>
+      <c r="BD138" s="25"/>
       <c r="BE138" s="25"/>
       <c r="BF138" s="25"/>
       <c r="BG138" s="6"/>
@@ -18869,26 +18647,16 @@
       <c r="AR139" s="25"/>
       <c r="AS139" s="6"/>
       <c r="AT139" s="6"/>
-      <c r="AU139" s="25">
-        <v>48</v>
-      </c>
-      <c r="AV139" s="25">
-        <v>96</v>
-      </c>
+      <c r="AU139" s="25"/>
+      <c r="AV139" s="25"/>
       <c r="AW139" s="25"/>
-      <c r="AX139" s="25">
-        <v>144</v>
-      </c>
+      <c r="AX139" s="25"/>
       <c r="AY139" s="25"/>
       <c r="AZ139" s="26"/>
       <c r="BA139" s="6"/>
-      <c r="BB139" s="25">
-        <v>36</v>
-      </c>
+      <c r="BB139" s="25"/>
       <c r="BC139" s="25"/>
-      <c r="BD139" s="25">
-        <v>48</v>
-      </c>
+      <c r="BD139" s="25"/>
       <c r="BE139" s="25"/>
       <c r="BF139" s="25"/>
       <c r="BG139" s="6"/>
@@ -18996,21 +18764,14 @@
       <c r="AR140" s="25"/>
       <c r="AS140" s="6"/>
       <c r="AT140" s="6"/>
-      <c r="AU140" s="25">
-        <f>192+36</f>
-        <v>228</v>
-      </c>
+      <c r="AU140" s="25"/>
       <c r="AV140" s="25"/>
-      <c r="AW140" s="25">
-        <v>36</v>
-      </c>
+      <c r="AW140" s="25"/>
       <c r="AX140" s="25"/>
       <c r="AY140" s="25"/>
       <c r="AZ140" s="26"/>
       <c r="BA140" s="6"/>
-      <c r="BB140" s="25">
-        <v>96</v>
-      </c>
+      <c r="BB140" s="25"/>
       <c r="BC140" s="25"/>
       <c r="BD140" s="25"/>
       <c r="BE140" s="25"/>
@@ -19102,23 +18863,16 @@
       <c r="AR141" s="25"/>
       <c r="AS141" s="6"/>
       <c r="AT141" s="6"/>
-      <c r="AU141" s="25">
-        <v>40</v>
-      </c>
+      <c r="AU141" s="25"/>
       <c r="AV141" s="25"/>
       <c r="AW141" s="25"/>
-      <c r="AX141" s="25">
-        <f>40+40</f>
-        <v>80</v>
-      </c>
+      <c r="AX141" s="25"/>
       <c r="AY141" s="25"/>
       <c r="AZ141" s="26"/>
       <c r="BA141" s="6"/>
       <c r="BB141" s="25"/>
       <c r="BC141" s="25"/>
-      <c r="BD141" s="25">
-        <v>40</v>
-      </c>
+      <c r="BD141" s="25"/>
       <c r="BE141" s="25"/>
       <c r="BF141" s="25"/>
       <c r="BG141" s="6"/>
@@ -19220,9 +18974,7 @@
       <c r="AT142" s="6"/>
       <c r="AU142" s="25"/>
       <c r="AV142" s="25"/>
-      <c r="AW142" s="25">
-        <v>75</v>
-      </c>
+      <c r="AW142" s="25"/>
       <c r="AX142" s="25"/>
       <c r="AY142" s="25"/>
       <c r="AZ142" s="26"/>
@@ -19334,9 +19086,7 @@
       <c r="AS143" s="6"/>
       <c r="AT143" s="6"/>
       <c r="AU143" s="25"/>
-      <c r="AV143" s="25">
-        <v>72</v>
-      </c>
+      <c r="AV143" s="25"/>
       <c r="AW143" s="25"/>
       <c r="AX143" s="25"/>
       <c r="AY143" s="25"/>
@@ -19449,12 +19199,8 @@
       <c r="AS144" s="6"/>
       <c r="AT144" s="6"/>
       <c r="AU144" s="25"/>
-      <c r="AV144" s="25">
-        <v>48</v>
-      </c>
-      <c r="AW144" s="25">
-        <v>48</v>
-      </c>
+      <c r="AV144" s="25"/>
+      <c r="AW144" s="25"/>
       <c r="AX144" s="25"/>
       <c r="AY144" s="25"/>
       <c r="AZ144" s="26"/>
@@ -19566,12 +19312,8 @@
       <c r="AS145" s="6"/>
       <c r="AT145" s="6"/>
       <c r="AU145" s="25"/>
-      <c r="AV145" s="25">
-        <v>72</v>
-      </c>
-      <c r="AW145" s="25">
-        <v>36</v>
-      </c>
+      <c r="AV145" s="25"/>
+      <c r="AW145" s="25"/>
       <c r="AX145" s="25"/>
       <c r="AY145" s="25"/>
       <c r="AZ145" s="26"/>
@@ -19903,20 +19645,14 @@
       <c r="AR148" s="25"/>
       <c r="AS148" s="6"/>
       <c r="AT148" s="6"/>
-      <c r="AU148" s="25">
-        <v>133</v>
-      </c>
+      <c r="AU148" s="25"/>
       <c r="AV148" s="25"/>
       <c r="AW148" s="25"/>
-      <c r="AX148" s="25">
-        <v>98</v>
-      </c>
+      <c r="AX148" s="25"/>
       <c r="AY148" s="25"/>
       <c r="AZ148" s="26"/>
       <c r="BA148" s="6"/>
-      <c r="BB148" s="25">
-        <v>154</v>
-      </c>
+      <c r="BB148" s="25"/>
       <c r="BC148" s="25"/>
       <c r="BD148" s="25"/>
       <c r="BE148" s="25"/>
@@ -20020,22 +19756,14 @@
       <c r="AR149" s="25"/>
       <c r="AS149" s="6"/>
       <c r="AT149" s="6"/>
-      <c r="AU149" s="25">
-        <v>99</v>
-      </c>
-      <c r="AV149" s="25">
-        <v>108</v>
-      </c>
+      <c r="AU149" s="25"/>
+      <c r="AV149" s="25"/>
       <c r="AW149" s="25"/>
-      <c r="AX149" s="25">
-        <v>90</v>
-      </c>
+      <c r="AX149" s="25"/>
       <c r="AY149" s="25"/>
       <c r="AZ149" s="26"/>
       <c r="BA149" s="6"/>
-      <c r="BB149" s="25">
-        <v>108</v>
-      </c>
+      <c r="BB149" s="25"/>
       <c r="BC149" s="25"/>
       <c r="BD149" s="25"/>
       <c r="BE149" s="25"/>
@@ -20243,9 +19971,7 @@
       <c r="AR151" s="25"/>
       <c r="AS151" s="6"/>
       <c r="AT151" s="6"/>
-      <c r="AU151" s="25">
-        <v>42</v>
-      </c>
+      <c r="AU151" s="25"/>
       <c r="AV151" s="25"/>
       <c r="AW151" s="25"/>
       <c r="AX151" s="25"/>
@@ -20474,15 +20200,11 @@
       <c r="AU153" s="25"/>
       <c r="AV153" s="25"/>
       <c r="AW153" s="25"/>
-      <c r="AX153" s="25">
-        <v>49</v>
-      </c>
+      <c r="AX153" s="25"/>
       <c r="AY153" s="25"/>
       <c r="AZ153" s="26"/>
       <c r="BA153" s="6"/>
-      <c r="BB153" s="25">
-        <v>49</v>
-      </c>
+      <c r="BB153" s="25"/>
       <c r="BC153" s="25"/>
       <c r="BD153" s="25"/>
       <c r="BE153" s="25"/>
@@ -20588,9 +20310,7 @@
       <c r="AU154" s="25"/>
       <c r="AV154" s="25"/>
       <c r="AW154" s="25"/>
-      <c r="AX154" s="25">
-        <v>99</v>
-      </c>
+      <c r="AX154" s="25"/>
       <c r="AY154" s="25"/>
       <c r="AZ154" s="26"/>
       <c r="BA154" s="6"/>
@@ -20693,15 +20413,11 @@
       <c r="AU155" s="25"/>
       <c r="AV155" s="25"/>
       <c r="AW155" s="25"/>
-      <c r="AX155" s="25">
-        <v>35</v>
-      </c>
+      <c r="AX155" s="25"/>
       <c r="AY155" s="25"/>
       <c r="AZ155" s="26"/>
       <c r="BA155" s="6"/>
-      <c r="BB155" s="25">
-        <v>42</v>
-      </c>
+      <c r="BB155" s="25"/>
       <c r="BC155" s="25"/>
       <c r="BD155" s="25"/>
       <c r="BE155" s="25"/>
@@ -20810,9 +20526,7 @@
       <c r="AW156" s="25"/>
       <c r="AX156" s="25"/>
       <c r="AY156" s="25"/>
-      <c r="AZ156" s="25">
-        <v>20</v>
-      </c>
+      <c r="AZ156" s="25"/>
       <c r="BA156" s="6"/>
       <c r="BB156" s="25"/>
       <c r="BC156" s="25"/>
@@ -20921,20 +20635,14 @@
       <c r="AR157" s="25"/>
       <c r="AS157" s="6"/>
       <c r="AT157" s="6"/>
-      <c r="AU157" s="25">
-        <v>14</v>
-      </c>
+      <c r="AU157" s="25"/>
       <c r="AV157" s="25"/>
       <c r="AW157" s="25"/>
-      <c r="AX157" s="25">
-        <v>14</v>
-      </c>
+      <c r="AX157" s="25"/>
       <c r="AY157" s="25"/>
       <c r="AZ157" s="26"/>
       <c r="BA157" s="6"/>
-      <c r="BB157" s="25">
-        <v>14</v>
-      </c>
+      <c r="BB157" s="25"/>
       <c r="BC157" s="25"/>
       <c r="BD157" s="25"/>
       <c r="BE157" s="25"/>
@@ -21892,9 +21600,7 @@
       <c r="AT166" s="6"/>
       <c r="AU166" s="25"/>
       <c r="AV166" s="25"/>
-      <c r="AW166" s="25">
-        <v>200</v>
-      </c>
+      <c r="AW166" s="25"/>
       <c r="AX166" s="25"/>
       <c r="AY166" s="25"/>
       <c r="AZ166" s="26"/>
@@ -21985,9 +21691,7 @@
       <c r="AT167" s="6"/>
       <c r="AU167" s="25"/>
       <c r="AV167" s="25"/>
-      <c r="AW167" s="25">
-        <v>600</v>
-      </c>
+      <c r="AW167" s="25"/>
       <c r="AX167" s="25"/>
       <c r="AY167" s="25"/>
       <c r="AZ167" s="26"/>
@@ -22107,9 +21811,7 @@
       <c r="AT168" s="6"/>
       <c r="AU168" s="25"/>
       <c r="AV168" s="25"/>
-      <c r="AW168" s="25">
-        <v>600</v>
-      </c>
+      <c r="AW168" s="25"/>
       <c r="AX168" s="25"/>
       <c r="AY168" s="25"/>
       <c r="AZ168" s="26"/>
@@ -22332,20 +22034,14 @@
       <c r="AT170" s="6"/>
       <c r="AU170" s="25"/>
       <c r="AV170" s="25"/>
-      <c r="AW170" s="25">
-        <v>9000</v>
-      </c>
+      <c r="AW170" s="25"/>
       <c r="AX170" s="25"/>
       <c r="AY170" s="25"/>
-      <c r="AZ170" s="25">
-        <v>1500</v>
-      </c>
+      <c r="AZ170" s="25"/>
       <c r="BA170" s="6"/>
       <c r="BB170" s="25"/>
       <c r="BC170" s="25"/>
-      <c r="BD170" s="25">
-        <v>1500</v>
-      </c>
+      <c r="BD170" s="25"/>
       <c r="BE170" s="25"/>
       <c r="BF170" s="25"/>
       <c r="BG170" s="6"/>
@@ -22447,22 +22143,16 @@
       <c r="AR171" s="25"/>
       <c r="AS171" s="6"/>
       <c r="AT171" s="6"/>
-      <c r="AU171" s="25">
-        <v>5000</v>
-      </c>
+      <c r="AU171" s="25"/>
       <c r="AV171" s="25"/>
-      <c r="AW171" s="25">
-        <v>16000</v>
-      </c>
+      <c r="AW171" s="25"/>
       <c r="AX171" s="25"/>
       <c r="AY171" s="25"/>
       <c r="AZ171" s="26"/>
       <c r="BA171" s="6"/>
       <c r="BB171" s="25"/>
       <c r="BC171" s="25"/>
-      <c r="BD171" s="25">
-        <v>1000</v>
-      </c>
+      <c r="BD171" s="25"/>
       <c r="BE171" s="25"/>
       <c r="BF171" s="25"/>
       <c r="BG171" s="6"/>
@@ -22566,20 +22256,14 @@
       <c r="AT172" s="6"/>
       <c r="AU172" s="25"/>
       <c r="AV172" s="25"/>
-      <c r="AW172" s="25">
-        <v>10000</v>
-      </c>
+      <c r="AW172" s="25"/>
       <c r="AX172" s="25"/>
       <c r="AY172" s="25"/>
-      <c r="AZ172" s="25">
-        <v>2000</v>
-      </c>
+      <c r="AZ172" s="25"/>
       <c r="BA172" s="6"/>
       <c r="BB172" s="25"/>
       <c r="BC172" s="25"/>
-      <c r="BD172" s="25">
-        <v>3000</v>
-      </c>
+      <c r="BD172" s="25"/>
       <c r="BE172" s="25"/>
       <c r="BF172" s="25"/>
       <c r="BG172" s="6"/>
@@ -22684,20 +22368,14 @@
       <c r="AT173" s="6"/>
       <c r="AU173" s="25"/>
       <c r="AV173" s="25"/>
-      <c r="AW173" s="25">
-        <v>3000</v>
-      </c>
+      <c r="AW173" s="25"/>
       <c r="AX173" s="25"/>
       <c r="AY173" s="25"/>
-      <c r="AZ173" s="25">
-        <v>1000</v>
-      </c>
+      <c r="AZ173" s="25"/>
       <c r="BA173" s="6"/>
       <c r="BB173" s="25"/>
       <c r="BC173" s="25"/>
-      <c r="BD173" s="25">
-        <v>3000</v>
-      </c>
+      <c r="BD173" s="25"/>
       <c r="BE173" s="25"/>
       <c r="BF173" s="25"/>
       <c r="BG173" s="6"/>
@@ -22914,9 +22592,7 @@
       <c r="AS175" s="6"/>
       <c r="AT175" s="6"/>
       <c r="AU175" s="25"/>
-      <c r="AV175" s="25">
-        <v>3000</v>
-      </c>
+      <c r="AV175" s="25"/>
       <c r="AW175" s="25"/>
       <c r="AX175" s="25"/>
       <c r="AY175" s="25"/>
@@ -23032,9 +22708,7 @@
       <c r="AS176" s="6"/>
       <c r="AT176" s="6"/>
       <c r="AU176" s="25"/>
-      <c r="AV176" s="25">
-        <v>3000</v>
-      </c>
+      <c r="AV176" s="25"/>
       <c r="AW176" s="25"/>
       <c r="AX176" s="25"/>
       <c r="AY176" s="25"/>
@@ -23150,9 +22824,7 @@
       <c r="AS177" s="6"/>
       <c r="AT177" s="6"/>
       <c r="AU177" s="25"/>
-      <c r="AV177" s="25">
-        <v>2000</v>
-      </c>
+      <c r="AV177" s="25"/>
       <c r="AW177" s="25"/>
       <c r="AX177" s="25"/>
       <c r="AY177" s="25"/>
@@ -23271,9 +22943,7 @@
       <c r="AS178" s="6"/>
       <c r="AT178" s="6"/>
       <c r="AU178" s="25"/>
-      <c r="AV178" s="25">
-        <v>1000</v>
-      </c>
+      <c r="AV178" s="25"/>
       <c r="AW178" s="25"/>
       <c r="AX178" s="25"/>
       <c r="AY178" s="25"/>
@@ -23501,17 +23171,13 @@
       <c r="AU180" s="25"/>
       <c r="AV180" s="25"/>
       <c r="AW180" s="25"/>
-      <c r="AX180" s="25">
-        <v>2000</v>
-      </c>
+      <c r="AX180" s="25"/>
       <c r="AY180" s="25"/>
       <c r="AZ180" s="26"/>
       <c r="BA180" s="6"/>
       <c r="BB180" s="25"/>
       <c r="BC180" s="25"/>
-      <c r="BD180" s="25">
-        <v>2000</v>
-      </c>
+      <c r="BD180" s="25"/>
       <c r="BE180" s="25"/>
       <c r="BF180" s="25"/>
       <c r="BG180" s="6"/>
@@ -23709,17 +23375,13 @@
       <c r="AU182" s="25"/>
       <c r="AV182" s="25"/>
       <c r="AW182" s="25"/>
-      <c r="AX182" s="25">
-        <v>2500</v>
-      </c>
+      <c r="AX182" s="25"/>
       <c r="AY182" s="25"/>
       <c r="AZ182" s="26"/>
       <c r="BA182" s="6"/>
       <c r="BB182" s="25"/>
       <c r="BC182" s="25"/>
-      <c r="BD182" s="25">
-        <v>2500</v>
-      </c>
+      <c r="BD182" s="25"/>
       <c r="BE182" s="25"/>
       <c r="BF182" s="25"/>
       <c r="BG182" s="6"/>
@@ -23820,9 +23482,7 @@
       <c r="AU183" s="25"/>
       <c r="AV183" s="25"/>
       <c r="AW183" s="25"/>
-      <c r="AX183" s="25">
-        <v>3600</v>
-      </c>
+      <c r="AX183" s="25"/>
       <c r="AY183" s="25"/>
       <c r="AZ183" s="26"/>
       <c r="BA183" s="6"/>
@@ -24041,9 +23701,7 @@
       <c r="AS185" s="6"/>
       <c r="AT185" s="6"/>
       <c r="AU185" s="25"/>
-      <c r="AV185" s="25">
-        <v>30</v>
-      </c>
+      <c r="AV185" s="25"/>
       <c r="AW185" s="25"/>
       <c r="AX185" s="25"/>
       <c r="AY185" s="25"/>
@@ -24051,9 +23709,7 @@
       <c r="BA185" s="6"/>
       <c r="BB185" s="25"/>
       <c r="BC185" s="25"/>
-      <c r="BD185" s="25">
-        <v>25</v>
-      </c>
+      <c r="BD185" s="25"/>
       <c r="BE185" s="25"/>
       <c r="BF185" s="25"/>
       <c r="BG185" s="6"/>
@@ -24274,9 +23930,7 @@
       <c r="AV187" s="25"/>
       <c r="AW187" s="25"/>
       <c r="AX187" s="25"/>
-      <c r="AY187" s="25">
-        <v>250</v>
-      </c>
+      <c r="AY187" s="25"/>
       <c r="AZ187" s="26"/>
       <c r="BA187" s="6"/>
       <c r="BB187" s="25"/>
@@ -24499,9 +24153,7 @@
       <c r="BA189" s="6"/>
       <c r="BB189" s="25"/>
       <c r="BC189" s="25"/>
-      <c r="BD189" s="25">
-        <v>80</v>
-      </c>
+      <c r="BD189" s="25"/>
       <c r="BE189" s="25"/>
       <c r="BF189" s="25"/>
       <c r="BG189" s="6"/>
@@ -24717,9 +24369,7 @@
       <c r="AU191" s="25"/>
       <c r="AV191" s="25"/>
       <c r="AW191" s="25"/>
-      <c r="AX191" s="25">
-        <v>80</v>
-      </c>
+      <c r="AX191" s="25"/>
       <c r="AY191" s="25"/>
       <c r="AZ191" s="26"/>
       <c r="BA191" s="6"/>
@@ -24829,12 +24479,8 @@
       <c r="AT192" s="6"/>
       <c r="AU192" s="25"/>
       <c r="AV192" s="25"/>
-      <c r="AW192" s="25">
-        <v>50</v>
-      </c>
-      <c r="AX192" s="25">
-        <v>102</v>
-      </c>
+      <c r="AW192" s="25"/>
+      <c r="AX192" s="25"/>
       <c r="AY192" s="25"/>
       <c r="AZ192" s="26"/>
       <c r="BA192" s="6"/>
@@ -24945,9 +24591,7 @@
       <c r="AU193" s="25"/>
       <c r="AV193" s="25"/>
       <c r="AW193" s="25"/>
-      <c r="AX193" s="25">
-        <v>45</v>
-      </c>
+      <c r="AX193" s="25"/>
       <c r="AY193" s="25"/>
       <c r="AZ193" s="26"/>
       <c r="BA193" s="6"/>
@@ -25171,9 +24815,7 @@
       <c r="AV195" s="25"/>
       <c r="AW195" s="25"/>
       <c r="AX195" s="25"/>
-      <c r="AY195" s="25">
-        <v>48</v>
-      </c>
+      <c r="AY195" s="25"/>
       <c r="AZ195" s="26"/>
       <c r="BA195" s="6"/>
       <c r="BB195" s="25"/>
@@ -25522,10 +25164,7 @@
       <c r="AR198" s="25"/>
       <c r="AS198" s="6"/>
       <c r="AT198" s="6"/>
-      <c r="AU198" s="25">
-        <f>500+500</f>
-        <v>1000</v>
-      </c>
+      <c r="AU198" s="25"/>
       <c r="AV198" s="25"/>
       <c r="AW198" s="25"/>
       <c r="AX198" s="25"/>
@@ -26354,9 +25993,7 @@
       <c r="AU205" s="25"/>
       <c r="AV205" s="25"/>
       <c r="AW205" s="25"/>
-      <c r="AX205" s="25">
-        <v>500</v>
-      </c>
+      <c r="AX205" s="25"/>
       <c r="AY205" s="25"/>
       <c r="AZ205" s="26"/>
       <c r="BA205" s="6"/>
@@ -26470,9 +26107,7 @@
       <c r="AY206" s="25"/>
       <c r="AZ206" s="26"/>
       <c r="BA206" s="6"/>
-      <c r="BB206" s="25">
-        <v>296</v>
-      </c>
+      <c r="BB206" s="25"/>
       <c r="BC206" s="25"/>
       <c r="BD206" s="25"/>
       <c r="BE206" s="25"/>
@@ -26584,9 +26219,7 @@
       <c r="AY207" s="25"/>
       <c r="AZ207" s="26"/>
       <c r="BA207" s="6"/>
-      <c r="BB207" s="25">
-        <v>296</v>
-      </c>
+      <c r="BB207" s="25"/>
       <c r="BC207" s="25"/>
       <c r="BD207" s="25"/>
       <c r="BE207" s="25"/>
@@ -27827,9 +27460,7 @@
       <c r="AY218" s="25"/>
       <c r="AZ218" s="26"/>
       <c r="BA218" s="6"/>
-      <c r="BB218" s="25">
-        <v>42</v>
-      </c>
+      <c r="BB218" s="25"/>
       <c r="BC218" s="25"/>
       <c r="BD218" s="25"/>
       <c r="BE218" s="25"/>
@@ -28158,9 +27789,7 @@
       <c r="AU221" s="25"/>
       <c r="AV221" s="25"/>
       <c r="AW221" s="25"/>
-      <c r="AX221" s="25">
-        <v>40</v>
-      </c>
+      <c r="AX221" s="25"/>
       <c r="AY221" s="25"/>
       <c r="AZ221" s="26"/>
       <c r="BA221" s="6"/>
@@ -29935,9 +29564,7 @@
       <c r="AR237" s="25"/>
       <c r="AS237" s="6"/>
       <c r="AT237" s="6"/>
-      <c r="AU237" s="25">
-        <v>300</v>
-      </c>
+      <c r="AU237" s="25"/>
       <c r="AV237" s="25"/>
       <c r="AW237" s="25"/>
       <c r="AX237" s="25"/>
@@ -32371,474 +31998,435 @@
   </sheetData>
   <autoFilter ref="C2:D2" xr:uid="{CC412B54-366C-48C5-A561-3550BE0946A4}"/>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="118" priority="381" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="108" priority="381" operator="lessThanOrEqual">
       <formula>$G38</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="378" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="379" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="106" priority="379" operator="greaterThanOrEqual">
       <formula>$H38</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="380" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="380" operator="between">
       <formula>$G38</formula>
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="cellIs" dxfId="114" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="156" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="155" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="103" priority="155" operator="lessThanOrEqual">
       <formula>$F24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="154" operator="between">
+    <cfRule type="cellIs" dxfId="102" priority="154" operator="between">
       <formula>$F24</formula>
       <formula>$H24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="153" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="101" priority="153" operator="greaterThanOrEqual">
       <formula>$G24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J65">
-    <cfRule type="cellIs" dxfId="110" priority="173" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="100" priority="173" operator="greaterThanOrEqual">
       <formula>$F65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="174" operator="between">
+    <cfRule type="cellIs" dxfId="99" priority="174" operator="between">
       <formula>$E65</formula>
       <formula>$G65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="175" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="98" priority="175" operator="lessThanOrEqual">
       <formula>$E65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J66:J67 J70 M70:Q70 J99 M99:Q99 J203 M203:Q203">
-    <cfRule type="cellIs" dxfId="107" priority="178" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="97" priority="178" operator="lessThanOrEqual">
       <formula>$G66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="177" operator="between">
+    <cfRule type="cellIs" dxfId="96" priority="177" operator="between">
       <formula>$G66</formula>
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="176" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="95" priority="176" operator="greaterThanOrEqual">
       <formula>$H66</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J76">
-    <cfRule type="cellIs" dxfId="104" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="157" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J108 J130 M130:Q130 J132 M132:Q132">
-    <cfRule type="cellIs" dxfId="103" priority="163" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="93" priority="163" operator="lessThanOrEqual">
       <formula>$F108</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="162" operator="between">
+    <cfRule type="cellIs" dxfId="92" priority="162" operator="between">
       <formula>$F108</formula>
       <formula>$H108</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="161" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="91" priority="161" operator="greaterThanOrEqual">
       <formula>$G108</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125">
-    <cfRule type="cellIs" dxfId="100" priority="168" operator="between">
+    <cfRule type="cellIs" dxfId="90" priority="168" operator="between">
       <formula>$F125</formula>
       <formula>$H125</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="167" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="89" priority="167" operator="greaterThanOrEqual">
       <formula>$G125</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="169" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="88" priority="169" operator="lessThanOrEqual">
       <formula>$F125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J134">
-    <cfRule type="cellIs" dxfId="97" priority="172" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="87" priority="172" operator="lessThanOrEqual">
       <formula>$F134</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="171" operator="between">
+    <cfRule type="cellIs" dxfId="86" priority="171" operator="between">
       <formula>$F134</formula>
       <formula>$H134</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="170" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="85" priority="170" operator="greaterThanOrEqual">
       <formula>$G134</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J151:J152">
-    <cfRule type="cellIs" dxfId="94" priority="152" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="84" priority="152" operator="lessThanOrEqual">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="151" operator="between">
+    <cfRule type="cellIs" dxfId="83" priority="151" operator="between">
       <formula>#REF!</formula>
       <formula>$F151</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="150" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="82" priority="150" operator="greaterThanOrEqual">
       <formula>$E151</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="149" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J163:J164">
-    <cfRule type="cellIs" dxfId="90" priority="148" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="80" priority="148" operator="lessThanOrEqual">
       <formula>$F163</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="147" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="147" operator="between">
       <formula>$F163</formula>
       <formula>$H163</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="146" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="78" priority="146" operator="greaterThanOrEqual">
       <formula>$G163</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J217">
-    <cfRule type="cellIs" dxfId="87" priority="166" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="77" priority="166" operator="lessThanOrEqual">
       <formula>$F217</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="164" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="76" priority="164" operator="greaterThanOrEqual">
       <formula>$G217</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="165" operator="between">
+    <cfRule type="cellIs" dxfId="75" priority="165" operator="between">
       <formula>$F217</formula>
       <formula>$H217</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J236">
-    <cfRule type="cellIs" dxfId="84" priority="158" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="74" priority="158" operator="greaterThanOrEqual">
       <formula>$G236</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="159" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="159" operator="between">
       <formula>$F236</formula>
       <formula>$H236</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="160" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="72" priority="160" operator="lessThanOrEqual">
       <formula>$F236</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24:Q24">
-    <cfRule type="cellIs" dxfId="81" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="123" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="120" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="70" priority="120" operator="greaterThanOrEqual">
       <formula>$G24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="121" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="121" operator="between">
       <formula>$F24</formula>
       <formula>$H24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="122" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="68" priority="122" operator="lessThanOrEqual">
       <formula>$F24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:Q65">
-    <cfRule type="cellIs" dxfId="77" priority="141" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="141" operator="between">
       <formula>$E65</formula>
       <formula>$G65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="142" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="66" priority="142" operator="lessThanOrEqual">
       <formula>$E65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="140" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="65" priority="140" operator="greaterThanOrEqual">
       <formula>$F65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M66:Q67">
-    <cfRule type="cellIs" dxfId="74" priority="78" operator="between">
+    <cfRule type="cellIs" dxfId="64" priority="78" operator="between">
       <formula>$G66</formula>
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="79" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="63" priority="79" operator="lessThanOrEqual">
       <formula>$G66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="77" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="62" priority="77" operator="greaterThanOrEqual">
       <formula>$H66</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M76:Q76">
-    <cfRule type="cellIs" dxfId="71" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="124" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M108:Q108">
-    <cfRule type="cellIs" dxfId="70" priority="130" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="60" priority="130" operator="lessThanOrEqual">
       <formula>$F108</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="129" operator="between">
+    <cfRule type="cellIs" dxfId="59" priority="129" operator="between">
       <formula>$F108</formula>
       <formula>$H108</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="128" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="58" priority="128" operator="greaterThanOrEqual">
       <formula>$G108</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M125:Q125">
-    <cfRule type="cellIs" dxfId="67" priority="135" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="135" operator="between">
       <formula>$F125</formula>
       <formula>$H125</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="134" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="56" priority="134" operator="greaterThanOrEqual">
       <formula>$G125</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="136" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="55" priority="136" operator="lessThanOrEqual">
       <formula>$F125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M134:Q134">
-    <cfRule type="cellIs" dxfId="64" priority="138" operator="between">
+    <cfRule type="cellIs" dxfId="54" priority="138" operator="between">
       <formula>$F134</formula>
       <formula>$H134</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="139" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="53" priority="139" operator="lessThanOrEqual">
       <formula>$F134</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="137" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="137" operator="greaterThanOrEqual">
       <formula>$G134</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151:Q152">
-    <cfRule type="cellIs" dxfId="61" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="73" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="74" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="50" priority="74" operator="greaterThanOrEqual">
       <formula>$E151</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="75" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="75" operator="between">
       <formula>#REF!</formula>
       <formula>$F151</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="76" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="48" priority="76" operator="lessThanOrEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M163:Q164">
-    <cfRule type="cellIs" dxfId="57" priority="70" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="47" priority="70" operator="greaterThanOrEqual">
       <formula>$G163</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="71" operator="between">
+    <cfRule type="cellIs" dxfId="46" priority="71" operator="between">
       <formula>$F163</formula>
       <formula>$H163</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="72" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="45" priority="72" operator="lessThanOrEqual">
       <formula>$F163</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M217:Q217">
-    <cfRule type="cellIs" dxfId="54" priority="131" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="44" priority="131" operator="greaterThanOrEqual">
       <formula>$G217</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="132" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="132" operator="between">
       <formula>$F217</formula>
       <formula>$H217</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="133" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="133" operator="lessThanOrEqual">
       <formula>$F217</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M236:Q236">
-    <cfRule type="cellIs" dxfId="51" priority="125" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="41" priority="125" operator="greaterThanOrEqual">
       <formula>$G236</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="127" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="40" priority="127" operator="lessThanOrEqual">
       <formula>$F236</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="126" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="126" operator="between">
       <formula>$F236</formula>
       <formula>$H236</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T24:W24">
-    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="44" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="43" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="37" priority="43" operator="lessThanOrEqual">
       <formula>$F24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="41" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="41" operator="greaterThanOrEqual">
       <formula>$G24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="42" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="42" operator="between">
       <formula>$F24</formula>
       <formula>$H24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T65:W65">
-    <cfRule type="cellIs" dxfId="44" priority="61" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="61" operator="greaterThanOrEqual">
       <formula>$F65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="63" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="33" priority="63" operator="lessThanOrEqual">
       <formula>$E65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="62" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="62" operator="between">
       <formula>$E65</formula>
       <formula>$G65</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T66:V67">
-    <cfRule type="cellIs" dxfId="41" priority="18" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="T66:W67">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="greaterThanOrEqual">
       <formula>$H66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="9" operator="between">
       <formula>$G66</formula>
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="20" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="lessThanOrEqual">
       <formula>$G66</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T70:W70 T99:W99 T203:W203">
-    <cfRule type="cellIs" dxfId="38" priority="67" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="67" operator="greaterThanOrEqual">
       <formula>$H70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="69" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="27" priority="69" operator="lessThanOrEqual">
       <formula>$G70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="68" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="68" operator="between">
       <formula>$G70</formula>
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T76:W76">
-    <cfRule type="cellIs" dxfId="35" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="45" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T108:W108">
-    <cfRule type="cellIs" dxfId="34" priority="49" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="49" operator="greaterThanOrEqual">
       <formula>$G108</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="51" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="23" priority="51" operator="lessThanOrEqual">
       <formula>$F108</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="50" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="50" operator="between">
       <formula>$F108</formula>
       <formula>$H108</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T125:W125">
-    <cfRule type="cellIs" dxfId="31" priority="57" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="21" priority="57" operator="lessThanOrEqual">
       <formula>$F125</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="55" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="55" operator="greaterThanOrEqual">
       <formula>$G125</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="56" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="56" operator="between">
       <formula>$F125</formula>
       <formula>$H125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T130:W130 T132:W132">
-    <cfRule type="cellIs" dxfId="28" priority="65" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="65" operator="between">
       <formula>$F130</formula>
       <formula>$H130</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="66" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="66" operator="lessThanOrEqual">
       <formula>$F130</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="64" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="64" operator="greaterThanOrEqual">
       <formula>$G130</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T134:W134">
-    <cfRule type="cellIs" dxfId="25" priority="58" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="58" operator="greaterThanOrEqual">
       <formula>$G134</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="59" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="59" operator="between">
       <formula>$F134</formula>
       <formula>$H134</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="60" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="60" operator="lessThanOrEqual">
       <formula>$F134</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T151:V152">
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="T151:W152">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="lessThanOrEqual">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="between">
       <formula>#REF!</formula>
       <formula>$F151</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThanOrEqual">
       <formula>$E151</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T163:V164">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="T163:W164">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThanOrEqual">
       <formula>$F163</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThanOrEqual">
       <formula>$G163</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
       <formula>$F163</formula>
       <formula>$H163</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T217:W217">
-    <cfRule type="cellIs" dxfId="15" priority="52" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="52" operator="greaterThanOrEqual">
       <formula>$G217</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="53" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="53" operator="between">
       <formula>$F217</formula>
       <formula>$H217</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="54" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="54" operator="lessThanOrEqual">
       <formula>$F217</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T236:W236">
-    <cfRule type="cellIs" dxfId="12" priority="46" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="46" operator="greaterThanOrEqual">
       <formula>$G236</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="47" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="47" operator="between">
       <formula>$F236</formula>
       <formula>$H236</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="48" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="48" operator="lessThanOrEqual">
       <formula>$F236</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W66:W67">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="greaterThanOrEqual">
-      <formula>$H66</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="between">
-      <formula>$G66</formula>
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="lessThanOrEqual">
-      <formula>$G66</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W151:W152">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
-      <formula>$E151</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
-      <formula>#REF!</formula>
-      <formula>$F151</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThanOrEqual">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W163:W164">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
-      <formula>$G163</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
-      <formula>$F163</formula>
-      <formula>$H163</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
-      <formula>$F163</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/script/.database/Novembro-2024.xlsx
+++ b/script/.database/Novembro-2024.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\PCP\CLAUDIO\VS_CD\dash\DashBoard_cd\script\.database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8ebfa57cf712c1f/dinho/Codes/CD/DashBoard_cd/script/.database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2196D0-398C-44F4-ACCC-D8661799C58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DD2196D0-398C-44F4-ACCC-D8661799C58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE214416-D286-4515-9325-FD35817C5D5A}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{206D94FF-8DD9-460F-9052-07E07C6EA2D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{206D94FF-8DD9-460F-9052-07E07C6EA2D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -1194,91 +1194,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1313,13 +1229,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
@@ -1334,27 +1243,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1363,76 +1251,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1516,83 +1334,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1622,6 +1363,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1677,105 +1425,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1790,48 +1440,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1859,7 +1467,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1873,14 +1481,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1909,6 +1517,398 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2256,42 +2256,42 @@
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="3" width="22.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="70.85546875" style="46" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="47" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="39" width="9.42578125" style="27" customWidth="1"/>
-    <col min="40" max="40" width="15.7109375" style="27" customWidth="1"/>
-    <col min="41" max="41" width="12.42578125" style="1" customWidth="1"/>
-    <col min="42" max="43" width="12.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="22.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="70.88671875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="47" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="39" width="9.44140625" style="27" customWidth="1"/>
+    <col min="40" max="40" width="15.6640625" style="27" customWidth="1"/>
+    <col min="41" max="41" width="12.44140625" style="1" customWidth="1"/>
+    <col min="42" max="43" width="12.33203125" style="5" customWidth="1"/>
     <col min="44" max="44" width="8" style="27" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="8" style="48" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="47" max="51" width="8" style="27" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="8" style="48" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="8" style="27" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="9" style="27" bestFit="1" customWidth="1"/>
     <col min="55" max="59" width="8" style="27" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="7.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="7.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="7.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="7.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="7.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="7.6640625" style="27" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="9" style="27" customWidth="1"/>
-    <col min="67" max="68" width="10.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="7.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="70" max="16384" width="7.28515625" style="27"/>
+    <col min="67" max="68" width="10.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="70" max="16384" width="7.33203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="51"/>
@@ -2486,14 +2486,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:73" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8"/>
       <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
@@ -2705,7 +2704,7 @@
         <v>45626</v>
       </c>
     </row>
-    <row r="3" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -2826,7 +2825,7 @@
       <c r="BT3" s="25"/>
       <c r="BU3" s="6"/>
     </row>
-    <row r="4" spans="1:73" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="17">
         <v>810200000000015</v>
@@ -2935,7 +2934,7 @@
       <c r="BT4" s="25"/>
       <c r="BU4" s="6"/>
     </row>
-    <row r="5" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -3056,7 +3055,7 @@
       <c r="BT5" s="25"/>
       <c r="BU5" s="6"/>
     </row>
-    <row r="6" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="17">
         <v>810500000000004</v>
@@ -3175,7 +3174,7 @@
       <c r="BT6" s="25"/>
       <c r="BU6" s="6"/>
     </row>
-    <row r="7" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>4</v>
       </c>
@@ -3296,7 +3295,7 @@
       <c r="BT7" s="25"/>
       <c r="BU7" s="6"/>
     </row>
-    <row r="8" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>5</v>
       </c>
@@ -3417,7 +3416,7 @@
       <c r="BT8" s="25"/>
       <c r="BU8" s="6"/>
     </row>
-    <row r="9" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>6</v>
       </c>
@@ -3538,7 +3537,7 @@
       <c r="BT9" s="25"/>
       <c r="BU9" s="6"/>
     </row>
-    <row r="10" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>7</v>
       </c>
@@ -3659,7 +3658,7 @@
       <c r="BT10" s="25"/>
       <c r="BU10" s="6"/>
     </row>
-    <row r="11" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>8</v>
       </c>
@@ -3780,7 +3779,7 @@
       <c r="BT11" s="25"/>
       <c r="BU11" s="6"/>
     </row>
-    <row r="12" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>9</v>
       </c>
@@ -3901,7 +3900,7 @@
       <c r="BT12" s="25"/>
       <c r="BU12" s="6"/>
     </row>
-    <row r="13" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>10</v>
       </c>
@@ -4022,7 +4021,7 @@
       <c r="BT13" s="25"/>
       <c r="BU13" s="6"/>
     </row>
-    <row r="14" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>11</v>
       </c>
@@ -4144,7 +4143,7 @@
       <c r="BT14" s="25"/>
       <c r="BU14" s="6"/>
     </row>
-    <row r="15" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>12</v>
       </c>
@@ -4255,7 +4254,7 @@
       <c r="BT15" s="25"/>
       <c r="BU15" s="6"/>
     </row>
-    <row r="16" spans="1:73" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:73" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -4376,7 +4375,7 @@
       <c r="BT16" s="25"/>
       <c r="BU16" s="6"/>
     </row>
-    <row r="17" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -4490,7 +4489,7 @@
       <c r="BT17" s="25"/>
       <c r="BU17" s="6"/>
     </row>
-    <row r="18" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -4611,7 +4610,7 @@
       <c r="BT18" s="25"/>
       <c r="BU18" s="6"/>
     </row>
-    <row r="19" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>17</v>
       </c>
@@ -4722,7 +4721,7 @@
       <c r="BT19" s="25"/>
       <c r="BU19" s="6"/>
     </row>
-    <row r="20" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>18</v>
       </c>
@@ -4837,7 +4836,7 @@
       <c r="BT20" s="25"/>
       <c r="BU20" s="6"/>
     </row>
-    <row r="21" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="17">
         <v>811200000000003</v>
@@ -4952,7 +4951,7 @@
       <c r="BT21" s="25"/>
       <c r="BU21" s="6"/>
     </row>
-    <row r="22" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>19</v>
       </c>
@@ -5073,7 +5072,7 @@
       <c r="BT22" s="25"/>
       <c r="BU22" s="6"/>
     </row>
-    <row r="23" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
       <c r="B23" s="17">
         <v>811200000000018</v>
@@ -5192,7 +5191,7 @@
       <c r="BT23" s="25"/>
       <c r="BU23" s="6"/>
     </row>
-    <row r="24" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="17">
         <v>811800000000005</v>
@@ -5301,7 +5300,7 @@
       <c r="BT24" s="25"/>
       <c r="BU24" s="6"/>
     </row>
-    <row r="25" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="17">
         <v>811800000000005</v>
@@ -5420,7 +5419,7 @@
       <c r="BT25" s="25"/>
       <c r="BU25" s="6"/>
     </row>
-    <row r="26" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16"/>
       <c r="B26" s="17">
         <v>812000000000001</v>
@@ -5539,7 +5538,7 @@
       <c r="BT26" s="25"/>
       <c r="BU26" s="6"/>
     </row>
-    <row r="27" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>23</v>
       </c>
@@ -5660,7 +5659,7 @@
       <c r="BT27" s="25"/>
       <c r="BU27" s="6"/>
     </row>
-    <row r="28" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>26</v>
       </c>
@@ -5781,7 +5780,7 @@
       <c r="BT28" s="25"/>
       <c r="BU28" s="6"/>
     </row>
-    <row r="29" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>24</v>
       </c>
@@ -5902,7 +5901,7 @@
       <c r="BT29" s="25"/>
       <c r="BU29" s="6"/>
     </row>
-    <row r="30" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>25</v>
       </c>
@@ -6023,7 +6022,7 @@
       <c r="BT30" s="25"/>
       <c r="BU30" s="6"/>
     </row>
-    <row r="31" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="17">
         <v>811200000000012</v>
@@ -6142,7 +6141,7 @@
       <c r="BT31" s="25"/>
       <c r="BU31" s="6"/>
     </row>
-    <row r="32" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>27</v>
       </c>
@@ -6263,7 +6262,7 @@
       <c r="BT32" s="25"/>
       <c r="BU32" s="6"/>
     </row>
-    <row r="33" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="17">
         <v>810700000000014</v>
@@ -6382,7 +6381,7 @@
       <c r="BT33" s="25"/>
       <c r="BU33" s="6"/>
     </row>
-    <row r="34" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>28</v>
       </c>
@@ -6503,7 +6502,7 @@
       <c r="BT34" s="25"/>
       <c r="BU34" s="6"/>
     </row>
-    <row r="35" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>29</v>
       </c>
@@ -6624,7 +6623,7 @@
       <c r="BT35" s="25"/>
       <c r="BU35" s="6"/>
     </row>
-    <row r="36" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="17">
         <v>810800000000001</v>
@@ -6732,7 +6731,7 @@
       <c r="BT36" s="25"/>
       <c r="BU36" s="6"/>
     </row>
-    <row r="37" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>30</v>
       </c>
@@ -6853,7 +6852,7 @@
       <c r="BT37" s="25"/>
       <c r="BU37" s="6"/>
     </row>
-    <row r="38" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16"/>
       <c r="B38" s="17">
         <v>810800000000026</v>
@@ -6972,7 +6971,7 @@
       <c r="BT38" s="25"/>
       <c r="BU38" s="6"/>
     </row>
-    <row r="39" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>31</v>
       </c>
@@ -7093,7 +7092,7 @@
       <c r="BT39" s="25"/>
       <c r="BU39" s="6"/>
     </row>
-    <row r="40" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>32</v>
       </c>
@@ -7214,7 +7213,7 @@
       <c r="BT40" s="25"/>
       <c r="BU40" s="6"/>
     </row>
-    <row r="41" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>33</v>
       </c>
@@ -7329,7 +7328,7 @@
       <c r="BT41" s="25"/>
       <c r="BU41" s="6"/>
     </row>
-    <row r="42" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>34</v>
       </c>
@@ -7450,7 +7449,7 @@
       <c r="BT42" s="25"/>
       <c r="BU42" s="6"/>
     </row>
-    <row r="43" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>35</v>
       </c>
@@ -7571,7 +7570,7 @@
       <c r="BT43" s="25"/>
       <c r="BU43" s="6"/>
     </row>
-    <row r="44" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
       <c r="B44" s="17">
         <v>810800000000021</v>
@@ -7690,7 +7689,7 @@
       <c r="BT44" s="25"/>
       <c r="BU44" s="6"/>
     </row>
-    <row r="45" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>36</v>
       </c>
@@ -7811,7 +7810,7 @@
       <c r="BT45" s="25"/>
       <c r="BU45" s="6"/>
     </row>
-    <row r="46" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
       <c r="B46" s="31">
         <v>810700000000007</v>
@@ -7930,7 +7929,7 @@
       <c r="BT46" s="25"/>
       <c r="BU46" s="6"/>
     </row>
-    <row r="47" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16"/>
       <c r="B47" s="17">
         <v>810700000000008</v>
@@ -8049,7 +8048,7 @@
       <c r="BT47" s="25"/>
       <c r="BU47" s="6"/>
     </row>
-    <row r="48" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="16"/>
       <c r="B48" s="17">
         <v>810800000000022</v>
@@ -8158,7 +8157,7 @@
       <c r="BT48" s="25"/>
       <c r="BU48" s="6"/>
     </row>
-    <row r="49" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16"/>
       <c r="B49" s="17">
         <v>810800000000024</v>
@@ -8267,7 +8266,7 @@
       <c r="BT49" s="25"/>
       <c r="BU49" s="6"/>
     </row>
-    <row r="50" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16"/>
       <c r="B50" s="17">
         <v>810700000000006</v>
@@ -8376,7 +8375,7 @@
       <c r="BT50" s="25"/>
       <c r="BU50" s="6"/>
     </row>
-    <row r="51" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="16"/>
       <c r="B51" s="17">
         <v>810700000000009</v>
@@ -8485,7 +8484,7 @@
       <c r="BT51" s="25"/>
       <c r="BU51" s="6"/>
     </row>
-    <row r="52" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16"/>
       <c r="B52" s="17">
         <v>810800000000023</v>
@@ -8594,7 +8593,7 @@
       <c r="BT52" s="25"/>
       <c r="BU52" s="6"/>
     </row>
-    <row r="53" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16"/>
       <c r="B53" s="17">
         <v>810700000000018</v>
@@ -8703,7 +8702,7 @@
       <c r="BT53" s="25"/>
       <c r="BU53" s="6"/>
     </row>
-    <row r="54" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16"/>
       <c r="B54" s="17">
         <v>810700000000019</v>
@@ -8812,7 +8811,7 @@
       <c r="BT54" s="25"/>
       <c r="BU54" s="6"/>
     </row>
-    <row r="55" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="16"/>
       <c r="B55" s="17">
         <v>810700000000015</v>
@@ -8921,7 +8920,7 @@
       <c r="BT55" s="25"/>
       <c r="BU55" s="6"/>
     </row>
-    <row r="56" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16"/>
       <c r="B56" s="17">
         <v>810700000000012</v>
@@ -9030,7 +9029,7 @@
       <c r="BT56" s="25"/>
       <c r="BU56" s="6"/>
     </row>
-    <row r="57" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16"/>
       <c r="B57" s="17">
         <v>810800000000025</v>
@@ -9139,7 +9138,7 @@
       <c r="BT57" s="25"/>
       <c r="BU57" s="6"/>
     </row>
-    <row r="58" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="16"/>
       <c r="B58" s="17">
         <v>810800000000027</v>
@@ -9258,7 +9257,7 @@
       <c r="BT58" s="25"/>
       <c r="BU58" s="6"/>
     </row>
-    <row r="59" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>37</v>
       </c>
@@ -9379,7 +9378,7 @@
       <c r="BT59" s="25"/>
       <c r="BU59" s="6"/>
     </row>
-    <row r="60" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>38</v>
       </c>
@@ -9500,7 +9499,7 @@
       <c r="BT60" s="25"/>
       <c r="BU60" s="6"/>
     </row>
-    <row r="61" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>39</v>
       </c>
@@ -9621,7 +9620,7 @@
       <c r="BT61" s="25"/>
       <c r="BU61" s="6"/>
     </row>
-    <row r="62" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>40</v>
       </c>
@@ -9733,7 +9732,7 @@
       <c r="BT62" s="25"/>
       <c r="BU62" s="6"/>
     </row>
-    <row r="63" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>41</v>
       </c>
@@ -9844,7 +9843,7 @@
       <c r="BT63" s="25"/>
       <c r="BU63" s="6"/>
     </row>
-    <row r="64" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <v>42</v>
       </c>
@@ -9955,7 +9954,7 @@
       <c r="BT64" s="25"/>
       <c r="BU64" s="6"/>
     </row>
-    <row r="65" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16"/>
       <c r="B65" s="17">
         <v>811100000000009</v>
@@ -10064,7 +10063,7 @@
       <c r="BT65" s="25"/>
       <c r="BU65" s="6"/>
     </row>
-    <row r="66" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>43</v>
       </c>
@@ -10175,7 +10174,7 @@
       <c r="BT66" s="25"/>
       <c r="BU66" s="6"/>
     </row>
-    <row r="67" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>44</v>
       </c>
@@ -10296,7 +10295,7 @@
       <c r="BT67" s="25"/>
       <c r="BU67" s="6"/>
     </row>
-    <row r="68" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="16"/>
       <c r="B68" s="17">
         <v>811100000000023</v>
@@ -10405,7 +10404,7 @@
       <c r="BT68" s="25"/>
       <c r="BU68" s="6"/>
     </row>
-    <row r="69" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
         <v>45</v>
       </c>
@@ -10516,7 +10515,7 @@
       <c r="BT69" s="25"/>
       <c r="BU69" s="6"/>
     </row>
-    <row r="70" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
         <v>46</v>
       </c>
@@ -10637,7 +10636,7 @@
       <c r="BT70" s="25"/>
       <c r="BU70" s="6"/>
     </row>
-    <row r="71" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="16">
         <v>47</v>
       </c>
@@ -10748,7 +10747,7 @@
       <c r="BT71" s="25"/>
       <c r="BU71" s="6"/>
     </row>
-    <row r="72" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>48</v>
       </c>
@@ -10864,7 +10863,7 @@
       <c r="BT72" s="25"/>
       <c r="BU72" s="6"/>
     </row>
-    <row r="73" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>49</v>
       </c>
@@ -10981,7 +10980,7 @@
       <c r="BT73" s="25"/>
       <c r="BU73" s="6"/>
     </row>
-    <row r="74" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
         <v>50</v>
       </c>
@@ -11092,7 +11091,7 @@
       <c r="BT74" s="25"/>
       <c r="BU74" s="6"/>
     </row>
-    <row r="75" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
         <v>51</v>
       </c>
@@ -11215,7 +11214,7 @@
       <c r="BT75" s="25"/>
       <c r="BU75" s="6"/>
     </row>
-    <row r="76" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
         <v>52</v>
       </c>
@@ -11320,7 +11319,7 @@
       <c r="BT76" s="25"/>
       <c r="BU76" s="6"/>
     </row>
-    <row r="77" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>53</v>
       </c>
@@ -11441,7 +11440,7 @@
       <c r="BT77" s="25"/>
       <c r="BU77" s="6"/>
     </row>
-    <row r="78" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>54</v>
       </c>
@@ -11552,7 +11551,7 @@
       <c r="BT78" s="25"/>
       <c r="BU78" s="6"/>
     </row>
-    <row r="79" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="16"/>
       <c r="B79" s="17">
         <v>811500000000025</v>
@@ -11671,7 +11670,7 @@
       <c r="BT79" s="25"/>
       <c r="BU79" s="6"/>
     </row>
-    <row r="80" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
         <v>57</v>
       </c>
@@ -11792,7 +11791,7 @@
       <c r="BT80" s="25"/>
       <c r="BU80" s="6"/>
     </row>
-    <row r="81" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <v>58</v>
       </c>
@@ -11914,7 +11913,7 @@
       <c r="BU81" s="6"/>
       <c r="WZG81" s="34"/>
     </row>
-    <row r="82" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>59</v>
       </c>
@@ -12005,7 +12004,7 @@
       <c r="BT82" s="25"/>
       <c r="BU82" s="6"/>
     </row>
-    <row r="83" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
         <v>61</v>
       </c>
@@ -12126,7 +12125,7 @@
       <c r="BT83" s="25"/>
       <c r="BU83" s="6"/>
     </row>
-    <row r="84" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>62</v>
       </c>
@@ -12237,7 +12236,7 @@
       <c r="BT84" s="25"/>
       <c r="BU84" s="6"/>
     </row>
-    <row r="85" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="16">
         <v>63</v>
       </c>
@@ -12348,7 +12347,7 @@
       <c r="BT85" s="25"/>
       <c r="BU85" s="6"/>
     </row>
-    <row r="86" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="16">
         <v>64</v>
       </c>
@@ -12469,7 +12468,7 @@
       <c r="BT86" s="25"/>
       <c r="BU86" s="6"/>
     </row>
-    <row r="87" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="16">
         <v>65</v>
       </c>
@@ -12590,7 +12589,7 @@
       <c r="BT87" s="25"/>
       <c r="BU87" s="6"/>
     </row>
-    <row r="88" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <v>66</v>
       </c>
@@ -12710,7 +12709,7 @@
       <c r="BT88" s="25"/>
       <c r="BU88" s="6"/>
     </row>
-    <row r="89" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
         <v>67</v>
       </c>
@@ -12830,7 +12829,7 @@
       <c r="BT89" s="25"/>
       <c r="BU89" s="6"/>
     </row>
-    <row r="90" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>68</v>
       </c>
@@ -12950,7 +12949,7 @@
       <c r="BT90" s="25"/>
       <c r="BU90" s="6"/>
     </row>
-    <row r="91" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
         <v>69</v>
       </c>
@@ -13061,7 +13060,7 @@
       <c r="BT91" s="25"/>
       <c r="BU91" s="6"/>
     </row>
-    <row r="92" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="16">
         <v>70</v>
       </c>
@@ -13182,7 +13181,7 @@
       <c r="BT92" s="25"/>
       <c r="BU92" s="6"/>
     </row>
-    <row r="93" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
         <v>71</v>
       </c>
@@ -13294,7 +13293,7 @@
       <c r="BT93" s="25"/>
       <c r="BU93" s="6"/>
     </row>
-    <row r="94" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="16">
         <v>72</v>
       </c>
@@ -13406,7 +13405,7 @@
       <c r="BT94" s="25"/>
       <c r="BU94" s="6"/>
     </row>
-    <row r="95" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>73</v>
       </c>
@@ -13518,7 +13517,7 @@
       <c r="BT95" s="25"/>
       <c r="BU95" s="6"/>
     </row>
-    <row r="96" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:73 16231:16231" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="16">
         <v>74</v>
       </c>
@@ -13629,7 +13628,7 @@
       <c r="BT96" s="25"/>
       <c r="BU96" s="6"/>
     </row>
-    <row r="97" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="16">
         <v>75</v>
       </c>
@@ -13740,7 +13739,7 @@
       <c r="BT97" s="25"/>
       <c r="BU97" s="6"/>
     </row>
-    <row r="98" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="16"/>
       <c r="B98" s="17">
         <v>830800000000022</v>
@@ -13859,7 +13858,7 @@
       <c r="BT98" s="25"/>
       <c r="BU98" s="6"/>
     </row>
-    <row r="99" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="16">
         <v>76</v>
       </c>
@@ -13970,7 +13969,7 @@
       <c r="BT99" s="25"/>
       <c r="BU99" s="6"/>
     </row>
-    <row r="100" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="16"/>
       <c r="B100" s="17">
         <v>819900000000057</v>
@@ -14089,7 +14088,7 @@
       <c r="BT100" s="25"/>
       <c r="BU100" s="6"/>
     </row>
-    <row r="101" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
         <v>77</v>
       </c>
@@ -14210,7 +14209,7 @@
       <c r="BT101" s="25"/>
       <c r="BU101" s="6"/>
     </row>
-    <row r="102" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>78</v>
       </c>
@@ -14331,7 +14330,7 @@
       <c r="BT102" s="25"/>
       <c r="BU102" s="6"/>
     </row>
-    <row r="103" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>79</v>
       </c>
@@ -14452,7 +14451,7 @@
       <c r="BT103" s="25"/>
       <c r="BU103" s="6"/>
     </row>
-    <row r="104" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="16">
         <v>80</v>
       </c>
@@ -14573,7 +14572,7 @@
       <c r="BT104" s="25"/>
       <c r="BU104" s="6"/>
     </row>
-    <row r="105" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
         <v>81</v>
       </c>
@@ -14694,7 +14693,7 @@
       <c r="BT105" s="25"/>
       <c r="BU105" s="6"/>
     </row>
-    <row r="106" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="16"/>
       <c r="B106" s="17">
         <v>819900000000017</v>
@@ -14813,7 +14812,7 @@
       <c r="BT106" s="25"/>
       <c r="BU106" s="6"/>
     </row>
-    <row r="107" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="16">
         <v>82</v>
       </c>
@@ -14934,7 +14933,7 @@
       <c r="BT107" s="25"/>
       <c r="BU107" s="6"/>
     </row>
-    <row r="108" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="16"/>
       <c r="B108" s="17">
         <v>819900000000021</v>
@@ -15053,7 +15052,7 @@
       <c r="BT108" s="25"/>
       <c r="BU108" s="6"/>
     </row>
-    <row r="109" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="16"/>
       <c r="B109" s="17">
         <v>819900000000019</v>
@@ -15172,7 +15171,7 @@
       <c r="BT109" s="25"/>
       <c r="BU109" s="6"/>
     </row>
-    <row r="110" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="16">
         <v>83</v>
       </c>
@@ -15293,7 +15292,7 @@
       <c r="BT110" s="25"/>
       <c r="BU110" s="6"/>
     </row>
-    <row r="111" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="16">
         <v>84</v>
       </c>
@@ -15404,7 +15403,7 @@
       <c r="BT111" s="25"/>
       <c r="BU111" s="6"/>
     </row>
-    <row r="112" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
         <v>85</v>
       </c>
@@ -15515,7 +15514,7 @@
       <c r="BT112" s="25"/>
       <c r="BU112" s="6"/>
     </row>
-    <row r="113" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="16">
         <v>86</v>
       </c>
@@ -15626,7 +15625,7 @@
       <c r="BT113" s="25"/>
       <c r="BU113" s="6"/>
     </row>
-    <row r="114" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="16">
         <v>87</v>
       </c>
@@ -15737,7 +15736,7 @@
       <c r="BT114" s="25"/>
       <c r="BU114" s="6"/>
     </row>
-    <row r="115" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="16">
         <v>88</v>
       </c>
@@ -15848,7 +15847,7 @@
       <c r="BT115" s="25"/>
       <c r="BU115" s="6"/>
     </row>
-    <row r="116" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="16">
         <v>90</v>
       </c>
@@ -15959,7 +15958,7 @@
       <c r="BT116" s="25"/>
       <c r="BU116" s="6"/>
     </row>
-    <row r="117" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="16">
         <v>91</v>
       </c>
@@ -16070,7 +16069,7 @@
       <c r="BT117" s="25"/>
       <c r="BU117" s="6"/>
     </row>
-    <row r="118" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="16">
         <v>92</v>
       </c>
@@ -16181,7 +16180,7 @@
       <c r="BT118" s="25"/>
       <c r="BU118" s="6"/>
     </row>
-    <row r="119" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="16"/>
       <c r="B119" s="38">
         <v>830100000000033</v>
@@ -16301,7 +16300,7 @@
       <c r="BT119" s="25"/>
       <c r="BU119" s="6"/>
     </row>
-    <row r="120" spans="1:73" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:73" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="16"/>
       <c r="B120" s="38">
         <v>830100000000034</v>
@@ -16420,7 +16419,7 @@
       <c r="BT120" s="25"/>
       <c r="BU120" s="6"/>
     </row>
-    <row r="121" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="16"/>
       <c r="B121" s="39">
         <v>830100000000035</v>
@@ -16539,7 +16538,7 @@
       <c r="BT121" s="25"/>
       <c r="BU121" s="6"/>
     </row>
-    <row r="122" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="16"/>
       <c r="B122" s="38">
         <v>830100000000036</v>
@@ -16658,7 +16657,7 @@
       <c r="BT122" s="25"/>
       <c r="BU122" s="6"/>
     </row>
-    <row r="123" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="16"/>
       <c r="B123" s="38">
         <v>830100000000037</v>
@@ -16777,7 +16776,7 @@
       <c r="BT123" s="25"/>
       <c r="BU123" s="6"/>
     </row>
-    <row r="124" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="16"/>
       <c r="B124" s="38">
         <v>830100000000038</v>
@@ -16896,7 +16895,7 @@
       <c r="BT124" s="25"/>
       <c r="BU124" s="6"/>
     </row>
-    <row r="125" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="16"/>
       <c r="B125" s="38">
         <v>830100000000039</v>
@@ -17015,7 +17014,7 @@
       <c r="BT125" s="25"/>
       <c r="BU125" s="6"/>
     </row>
-    <row r="126" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="16"/>
       <c r="B126" s="38">
         <v>830100000000040</v>
@@ -17134,7 +17133,7 @@
       <c r="BT126" s="25"/>
       <c r="BU126" s="6"/>
     </row>
-    <row r="127" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="16"/>
       <c r="B127" s="38">
         <v>830100000000041</v>
@@ -17253,7 +17252,7 @@
       <c r="BT127" s="25"/>
       <c r="BU127" s="6"/>
     </row>
-    <row r="128" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="16"/>
       <c r="B128" s="38">
         <v>830100000000042</v>
@@ -17372,7 +17371,7 @@
       <c r="BT128" s="25"/>
       <c r="BU128" s="6"/>
     </row>
-    <row r="129" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="16"/>
       <c r="B129" s="38">
         <v>830100000000043</v>
@@ -17491,7 +17490,7 @@
       <c r="BT129" s="25"/>
       <c r="BU129" s="6"/>
     </row>
-    <row r="130" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="16">
         <v>94</v>
       </c>
@@ -17612,7 +17611,7 @@
       <c r="BT130" s="25"/>
       <c r="BU130" s="6"/>
     </row>
-    <row r="131" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="16">
         <v>95</v>
       </c>
@@ -17733,7 +17732,7 @@
       <c r="BT131" s="25"/>
       <c r="BU131" s="6"/>
     </row>
-    <row r="132" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="16">
         <v>96</v>
       </c>
@@ -17854,7 +17853,7 @@
       <c r="BT132" s="25"/>
       <c r="BU132" s="6"/>
     </row>
-    <row r="133" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="16">
         <v>97</v>
       </c>
@@ -17975,7 +17974,7 @@
       <c r="BT133" s="25"/>
       <c r="BU133" s="6"/>
     </row>
-    <row r="134" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="16">
         <v>98</v>
       </c>
@@ -18096,7 +18095,7 @@
       <c r="BT134" s="25"/>
       <c r="BU134" s="6"/>
     </row>
-    <row r="135" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="16">
         <v>99</v>
       </c>
@@ -18217,7 +18216,7 @@
       <c r="BT135" s="25"/>
       <c r="BU135" s="6"/>
     </row>
-    <row r="136" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="16">
         <v>100</v>
       </c>
@@ -18338,7 +18337,7 @@
       <c r="BT136" s="25"/>
       <c r="BU136" s="6"/>
     </row>
-    <row r="137" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="16">
         <v>101</v>
       </c>
@@ -18450,7 +18449,7 @@
       <c r="BT137" s="25"/>
       <c r="BU137" s="6"/>
     </row>
-    <row r="138" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="16"/>
       <c r="B138" s="17">
         <v>830300000000009</v>
@@ -18562,7 +18561,7 @@
       <c r="BT138" s="25"/>
       <c r="BU138" s="6"/>
     </row>
-    <row r="139" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="16">
         <v>102</v>
       </c>
@@ -18675,7 +18674,7 @@
       <c r="BT139" s="25"/>
       <c r="BU139" s="6"/>
     </row>
-    <row r="140" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="16">
         <v>103</v>
       </c>
@@ -18792,7 +18791,7 @@
       <c r="BT140" s="25"/>
       <c r="BU140" s="6"/>
     </row>
-    <row r="141" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="16"/>
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
@@ -18891,7 +18890,7 @@
       <c r="BT141" s="25"/>
       <c r="BU141" s="6"/>
     </row>
-    <row r="142" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="16"/>
       <c r="B142" s="41">
         <v>830300000000124</v>
@@ -19000,7 +18999,7 @@
       <c r="BT142" s="25"/>
       <c r="BU142" s="6"/>
     </row>
-    <row r="143" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="16"/>
       <c r="B143" s="41">
         <v>830300000000125</v>
@@ -19113,7 +19112,7 @@
       <c r="BT143" s="25"/>
       <c r="BU143" s="6"/>
     </row>
-    <row r="144" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="16"/>
       <c r="B144" s="41">
         <v>830300000000126</v>
@@ -19226,7 +19225,7 @@
       <c r="BT144" s="25"/>
       <c r="BU144" s="6"/>
     </row>
-    <row r="145" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="16"/>
       <c r="B145" s="41">
         <v>830300000000127</v>
@@ -19339,7 +19338,7 @@
       <c r="BT145" s="25"/>
       <c r="BU145" s="6"/>
     </row>
-    <row r="146" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="16">
         <v>104</v>
       </c>
@@ -19450,7 +19449,7 @@
       <c r="BT146" s="25"/>
       <c r="BU146" s="6"/>
     </row>
-    <row r="147" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="16">
         <v>105</v>
       </c>
@@ -19561,7 +19560,7 @@
       <c r="BT147" s="25"/>
       <c r="BU147" s="6"/>
     </row>
-    <row r="148" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="16">
         <v>106</v>
       </c>
@@ -19673,7 +19672,7 @@
       <c r="BT148" s="25"/>
       <c r="BU148" s="6"/>
     </row>
-    <row r="149" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="16">
         <v>107</v>
       </c>
@@ -19784,7 +19783,7 @@
       <c r="BT149" s="25"/>
       <c r="BU149" s="6"/>
     </row>
-    <row r="150" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="16"/>
       <c r="B150" s="17"/>
       <c r="C150" s="17"/>
@@ -19887,7 +19886,7 @@
       <c r="BT150" s="25"/>
       <c r="BU150" s="6"/>
     </row>
-    <row r="151" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="16">
         <v>108</v>
       </c>
@@ -19999,7 +19998,7 @@
       <c r="BT151" s="25"/>
       <c r="BU151" s="6"/>
     </row>
-    <row r="152" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="16">
         <v>109</v>
       </c>
@@ -20111,7 +20110,7 @@
       <c r="BT152" s="25"/>
       <c r="BU152" s="6"/>
     </row>
-    <row r="153" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="16">
         <v>111</v>
       </c>
@@ -20225,7 +20224,7 @@
       <c r="BT153" s="25"/>
       <c r="BU153" s="6"/>
     </row>
-    <row r="154" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="16"/>
       <c r="B154" s="17">
         <v>830300000000076</v>
@@ -20335,7 +20334,7 @@
       <c r="BT154" s="25"/>
       <c r="BU154" s="6"/>
     </row>
-    <row r="155" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="16"/>
       <c r="B155" s="17"/>
       <c r="C155" s="17"/>
@@ -20438,7 +20437,7 @@
       <c r="BT155" s="25"/>
       <c r="BU155" s="6"/>
     </row>
-    <row r="156" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="16">
         <v>113</v>
       </c>
@@ -20549,7 +20548,7 @@
       <c r="BT156" s="25"/>
       <c r="BU156" s="6"/>
     </row>
-    <row r="157" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="16">
         <v>116</v>
       </c>
@@ -20663,7 +20662,7 @@
       <c r="BT157" s="25"/>
       <c r="BU157" s="6"/>
     </row>
-    <row r="158" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="16"/>
       <c r="B158" s="17">
         <v>830300000000021</v>
@@ -20772,7 +20771,7 @@
       <c r="BT158" s="25"/>
       <c r="BU158" s="6"/>
     </row>
-    <row r="159" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="16"/>
       <c r="B159" s="17">
         <v>830300000000028</v>
@@ -20881,7 +20880,7 @@
       <c r="BT159" s="25"/>
       <c r="BU159" s="6"/>
     </row>
-    <row r="160" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="16"/>
       <c r="B160" s="17">
         <v>830300000000028</v>
@@ -20984,7 +20983,7 @@
       <c r="BT160" s="25"/>
       <c r="BU160" s="6"/>
     </row>
-    <row r="161" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="16">
         <v>118</v>
       </c>
@@ -21095,7 +21094,7 @@
       <c r="BT161" s="25"/>
       <c r="BU161" s="6"/>
     </row>
-    <row r="162" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="16"/>
       <c r="B162" s="17">
         <v>831200000000063</v>
@@ -21204,7 +21203,7 @@
       <c r="BT162" s="25"/>
       <c r="BU162" s="6"/>
     </row>
-    <row r="163" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="16"/>
       <c r="B163" s="17">
         <v>831200000000062</v>
@@ -21313,7 +21312,7 @@
       <c r="BT163" s="25"/>
       <c r="BU163" s="6"/>
     </row>
-    <row r="164" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="16">
         <v>119</v>
       </c>
@@ -21424,7 +21423,7 @@
       <c r="BT164" s="25"/>
       <c r="BU164" s="6"/>
     </row>
-    <row r="165" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="16">
         <v>120</v>
       </c>
@@ -21535,7 +21534,7 @@
       <c r="BT165" s="25"/>
       <c r="BU165" s="6"/>
     </row>
-    <row r="166" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="16">
         <v>121</v>
       </c>
@@ -21626,7 +21625,7 @@
       <c r="BT166" s="25"/>
       <c r="BU166" s="6"/>
     </row>
-    <row r="167" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="16">
         <v>122</v>
       </c>
@@ -21717,7 +21716,7 @@
       <c r="BT167" s="25"/>
       <c r="BU167" s="6"/>
     </row>
-    <row r="168" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="16">
         <v>123</v>
       </c>
@@ -21837,7 +21836,7 @@
       <c r="BT168" s="25"/>
       <c r="BU168" s="6"/>
     </row>
-    <row r="169" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="16">
         <v>124</v>
       </c>
@@ -21948,7 +21947,7 @@
       <c r="BT169" s="25"/>
       <c r="BU169" s="6"/>
     </row>
-    <row r="170" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="16">
         <v>125</v>
       </c>
@@ -22060,7 +22059,7 @@
       <c r="BT170" s="25"/>
       <c r="BU170" s="6"/>
     </row>
-    <row r="171" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="16">
         <v>126</v>
       </c>
@@ -22171,7 +22170,7 @@
       <c r="BT171" s="25"/>
       <c r="BU171" s="6"/>
     </row>
-    <row r="172" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="16">
         <v>127</v>
       </c>
@@ -22282,7 +22281,7 @@
       <c r="BT172" s="25"/>
       <c r="BU172" s="6"/>
     </row>
-    <row r="173" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="16">
         <v>128</v>
       </c>
@@ -22394,7 +22393,7 @@
       <c r="BT173" s="25"/>
       <c r="BU173" s="6"/>
     </row>
-    <row r="174" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="16"/>
       <c r="B174" s="17">
         <v>830300000000032</v>
@@ -22503,7 +22502,7 @@
       <c r="BT174" s="25"/>
       <c r="BU174" s="6"/>
     </row>
-    <row r="175" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="16"/>
       <c r="B175" s="41">
         <v>830300000000118</v>
@@ -22619,7 +22618,7 @@
       <c r="BT175" s="25"/>
       <c r="BU175" s="6"/>
     </row>
-    <row r="176" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="16"/>
       <c r="B176" s="41">
         <v>830300000000119</v>
@@ -22735,7 +22734,7 @@
       <c r="BT176" s="25"/>
       <c r="BU176" s="6"/>
     </row>
-    <row r="177" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="16"/>
       <c r="B177" s="41">
         <v>830300000000120</v>
@@ -22851,7 +22850,7 @@
       <c r="BT177" s="25"/>
       <c r="BU177" s="6"/>
     </row>
-    <row r="178" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="16"/>
       <c r="B178" s="41">
         <v>830300000000121</v>
@@ -22970,7 +22969,7 @@
       <c r="BT178" s="25"/>
       <c r="BU178" s="6"/>
     </row>
-    <row r="179" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="16"/>
       <c r="B179" s="41">
         <v>830300000000123</v>
@@ -23089,7 +23088,7 @@
       <c r="BT179" s="25"/>
       <c r="BU179" s="6"/>
     </row>
-    <row r="180" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="16"/>
       <c r="B180" s="41"/>
       <c r="C180" s="41"/>
@@ -23196,7 +23195,7 @@
       <c r="BT180" s="25"/>
       <c r="BU180" s="6"/>
     </row>
-    <row r="181" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="16"/>
       <c r="B181" s="41"/>
       <c r="C181" s="41"/>
@@ -23293,7 +23292,7 @@
       <c r="BT181" s="25"/>
       <c r="BU181" s="6"/>
     </row>
-    <row r="182" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="16"/>
       <c r="B182" s="41"/>
       <c r="C182" s="41"/>
@@ -23400,7 +23399,7 @@
       <c r="BT182" s="25"/>
       <c r="BU182" s="6"/>
     </row>
-    <row r="183" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="16"/>
       <c r="B183" s="41"/>
       <c r="C183" s="41"/>
@@ -23507,7 +23506,7 @@
       <c r="BT183" s="25"/>
       <c r="BU183" s="6"/>
     </row>
-    <row r="184" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="16">
         <v>129</v>
       </c>
@@ -23617,7 +23616,7 @@
       <c r="BT184" s="25"/>
       <c r="BU184" s="6"/>
     </row>
-    <row r="185" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="16">
         <v>130</v>
       </c>
@@ -23728,7 +23727,7 @@
       <c r="BT185" s="25"/>
       <c r="BU185" s="6"/>
     </row>
-    <row r="186" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="16"/>
       <c r="B186" s="17">
         <v>830300000000087</v>
@@ -23837,7 +23836,7 @@
       <c r="BT186" s="25"/>
       <c r="BU186" s="6"/>
     </row>
-    <row r="187" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="16">
         <v>131</v>
       </c>
@@ -23954,7 +23953,7 @@
       <c r="BT187" s="25"/>
       <c r="BU187" s="6"/>
     </row>
-    <row r="188" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="16"/>
       <c r="B188" s="17">
         <v>830700000000002</v>
@@ -24061,7 +24060,7 @@
       <c r="BT188" s="25"/>
       <c r="BU188" s="6"/>
     </row>
-    <row r="189" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="16">
         <v>132</v>
       </c>
@@ -24172,7 +24171,7 @@
       <c r="BT189" s="25"/>
       <c r="BU189" s="6"/>
     </row>
-    <row r="190" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="16">
         <v>134</v>
       </c>
@@ -24283,7 +24282,7 @@
       <c r="BT190" s="25"/>
       <c r="BU190" s="6"/>
     </row>
-    <row r="191" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="16">
         <v>135</v>
       </c>
@@ -24394,7 +24393,7 @@
       <c r="BT191" s="25"/>
       <c r="BU191" s="6"/>
     </row>
-    <row r="192" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="16">
         <v>136</v>
       </c>
@@ -24505,7 +24504,7 @@
       <c r="BT192" s="25"/>
       <c r="BU192" s="6"/>
     </row>
-    <row r="193" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="16">
         <v>137</v>
       </c>
@@ -24616,7 +24615,7 @@
       <c r="BT193" s="25"/>
       <c r="BU193" s="6"/>
     </row>
-    <row r="194" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="16">
         <v>138</v>
       </c>
@@ -24728,7 +24727,7 @@
       <c r="BT194" s="25"/>
       <c r="BU194" s="6"/>
     </row>
-    <row r="195" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="16">
         <v>139</v>
       </c>
@@ -24839,7 +24838,7 @@
       <c r="BT195" s="25"/>
       <c r="BU195" s="6"/>
     </row>
-    <row r="196" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="16">
         <v>140</v>
       </c>
@@ -24950,7 +24949,7 @@
       <c r="BT196" s="25"/>
       <c r="BU196" s="6"/>
     </row>
-    <row r="197" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="16">
         <v>142</v>
       </c>
@@ -25071,7 +25070,7 @@
       <c r="BT197" s="25"/>
       <c r="BU197" s="6"/>
     </row>
-    <row r="198" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="16">
         <v>145</v>
       </c>
@@ -25192,7 +25191,7 @@
       <c r="BT198" s="25"/>
       <c r="BU198" s="6"/>
     </row>
-    <row r="199" spans="1:73" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:73" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="16">
         <v>146</v>
       </c>
@@ -25313,7 +25312,7 @@
       <c r="BT199" s="25"/>
       <c r="BU199" s="6"/>
     </row>
-    <row r="200" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="16">
         <v>148</v>
       </c>
@@ -25434,7 +25433,7 @@
       <c r="BT200" s="25"/>
       <c r="BU200" s="6"/>
     </row>
-    <row r="201" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="16">
         <v>149</v>
       </c>
@@ -25545,7 +25544,7 @@
       <c r="BT201" s="25"/>
       <c r="BU201" s="6"/>
     </row>
-    <row r="202" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="16"/>
       <c r="B202" s="17">
         <v>830100000000021</v>
@@ -25664,7 +25663,7 @@
       <c r="BT202" s="25"/>
       <c r="BU202" s="6"/>
     </row>
-    <row r="203" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="16">
         <v>150</v>
       </c>
@@ -25785,7 +25784,7 @@
       <c r="BT203" s="25"/>
       <c r="BU203" s="6"/>
     </row>
-    <row r="204" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="16">
         <v>151</v>
       </c>
@@ -25906,7 +25905,7 @@
       <c r="BT204" s="25"/>
       <c r="BU204" s="6"/>
     </row>
-    <row r="205" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="16">
         <v>152</v>
       </c>
@@ -26018,7 +26017,7 @@
       <c r="BT205" s="25"/>
       <c r="BU205" s="6"/>
     </row>
-    <row r="206" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="16"/>
       <c r="B206" s="17">
         <v>830200000000046</v>
@@ -26128,7 +26127,7 @@
       <c r="BT206" s="25"/>
       <c r="BU206" s="6"/>
     </row>
-    <row r="207" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="16">
         <v>153</v>
       </c>
@@ -26240,7 +26239,7 @@
       <c r="BT207" s="25"/>
       <c r="BU207" s="6"/>
     </row>
-    <row r="208" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="16">
         <v>154</v>
       </c>
@@ -26352,7 +26351,7 @@
       <c r="BT208" s="25"/>
       <c r="BU208" s="6"/>
     </row>
-    <row r="209" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="16">
         <v>155</v>
       </c>
@@ -26464,7 +26463,7 @@
       <c r="BT209" s="25"/>
       <c r="BU209" s="6"/>
     </row>
-    <row r="210" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="16">
         <v>157</v>
       </c>
@@ -26575,7 +26574,7 @@
       <c r="BT210" s="25"/>
       <c r="BU210" s="6"/>
     </row>
-    <row r="211" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="16">
         <v>158</v>
       </c>
@@ -26686,7 +26685,7 @@
       <c r="BT211" s="25"/>
       <c r="BU211" s="6"/>
     </row>
-    <row r="212" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="16"/>
       <c r="B212" s="17"/>
       <c r="C212" s="17">
@@ -26793,7 +26792,7 @@
       <c r="BT212" s="25"/>
       <c r="BU212" s="6"/>
     </row>
-    <row r="213" spans="1:73" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:73" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="16"/>
       <c r="B213" s="17">
         <v>860200000000266</v>
@@ -26902,7 +26901,7 @@
       <c r="BT213" s="25"/>
       <c r="BU213" s="6"/>
     </row>
-    <row r="214" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="16">
         <v>159</v>
       </c>
@@ -27013,7 +27012,7 @@
       <c r="BT214" s="25"/>
       <c r="BU214" s="6"/>
     </row>
-    <row r="215" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="16">
         <v>161</v>
       </c>
@@ -27124,7 +27123,7 @@
       <c r="BT215" s="25"/>
       <c r="BU215" s="6"/>
     </row>
-    <row r="216" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="16">
         <v>162</v>
       </c>
@@ -27235,7 +27234,7 @@
       <c r="BT216" s="25"/>
       <c r="BU216" s="6"/>
     </row>
-    <row r="217" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="16">
         <v>163</v>
       </c>
@@ -27359,7 +27358,7 @@
       <c r="BT217" s="25"/>
       <c r="BU217" s="6"/>
     </row>
-    <row r="218" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="16">
         <v>164</v>
       </c>
@@ -27481,7 +27480,7 @@
       <c r="BT218" s="25"/>
       <c r="BU218" s="6"/>
     </row>
-    <row r="219" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="16">
         <v>165</v>
       </c>
@@ -27592,7 +27591,7 @@
       <c r="BT219" s="25"/>
       <c r="BU219" s="6"/>
     </row>
-    <row r="220" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="16">
         <v>166</v>
       </c>
@@ -27703,7 +27702,7 @@
       <c r="BT220" s="25"/>
       <c r="BU220" s="6"/>
     </row>
-    <row r="221" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="16">
         <v>167</v>
       </c>
@@ -27814,7 +27813,7 @@
       <c r="BT221" s="25"/>
       <c r="BU221" s="6"/>
     </row>
-    <row r="222" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="16">
         <v>168</v>
       </c>
@@ -27925,7 +27924,7 @@
       <c r="BT222" s="25"/>
       <c r="BU222" s="6"/>
     </row>
-    <row r="223" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="16"/>
       <c r="B223" s="17">
         <v>830200000000045</v>
@@ -28044,7 +28043,7 @@
       <c r="BT223" s="25"/>
       <c r="BU223" s="6"/>
     </row>
-    <row r="224" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="16"/>
       <c r="B224" s="17">
         <v>831200000000115</v>
@@ -28154,7 +28153,7 @@
       <c r="BT224" s="25"/>
       <c r="BU224" s="6"/>
     </row>
-    <row r="225" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="16">
         <v>169</v>
       </c>
@@ -28266,7 +28265,7 @@
       <c r="BT225" s="25"/>
       <c r="BU225" s="6"/>
     </row>
-    <row r="226" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="16">
         <v>170</v>
       </c>
@@ -28378,7 +28377,7 @@
       <c r="BT226" s="25"/>
       <c r="BU226" s="6"/>
     </row>
-    <row r="227" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="16">
         <v>171</v>
       </c>
@@ -28490,7 +28489,7 @@
       <c r="BT227" s="25"/>
       <c r="BU227" s="6"/>
     </row>
-    <row r="228" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="17">
         <v>830900000000018</v>
       </c>
@@ -28611,7 +28610,7 @@
       <c r="BT228" s="25"/>
       <c r="BU228" s="6"/>
     </row>
-    <row r="229" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B229" s="17">
         <v>830900000000014</v>
       </c>
@@ -28719,7 +28718,7 @@
       <c r="BT229" s="25"/>
       <c r="BU229" s="6"/>
     </row>
-    <row r="230" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B230" s="17">
         <v>830900000000016</v>
       </c>
@@ -28827,7 +28826,7 @@
       <c r="BT230" s="25"/>
       <c r="BU230" s="6"/>
     </row>
-    <row r="231" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B231" s="17">
         <v>830900000000017</v>
       </c>
@@ -28935,7 +28934,7 @@
       <c r="BT231" s="25"/>
       <c r="BU231" s="6"/>
     </row>
-    <row r="232" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B232" s="17">
         <v>890300000000001</v>
       </c>
@@ -29043,7 +29042,7 @@
       <c r="BT232" s="25"/>
       <c r="BU232" s="6"/>
     </row>
-    <row r="233" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B233" s="17">
         <v>1</v>
       </c>
@@ -29154,7 +29153,7 @@
       <c r="BT233" s="25"/>
       <c r="BU233" s="6"/>
     </row>
-    <row r="234" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B234" s="17">
         <v>840100000000030</v>
       </c>
@@ -29268,7 +29267,7 @@
       <c r="BT234" s="25"/>
       <c r="BU234" s="6"/>
     </row>
-    <row r="235" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B235" s="17">
         <v>840100000000129</v>
       </c>
@@ -29376,7 +29375,7 @@
       <c r="BT235" s="25"/>
       <c r="BU235" s="6"/>
     </row>
-    <row r="236" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B236" s="17">
         <v>840100000000043</v>
       </c>
@@ -29484,7 +29483,7 @@
       <c r="BT236" s="25"/>
       <c r="BU236" s="6"/>
     </row>
-    <row r="237" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B237" s="17">
         <v>859900000001533</v>
       </c>
@@ -29592,7 +29591,7 @@
       <c r="BT237" s="25"/>
       <c r="BU237" s="6"/>
     </row>
-    <row r="238" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B238" s="17">
         <v>859900000000088</v>
       </c>
@@ -29700,7 +29699,7 @@
       <c r="BT238" s="25"/>
       <c r="BU238" s="6"/>
     </row>
-    <row r="239" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B239" s="17">
         <v>859900000000089</v>
       </c>
@@ -29808,2188 +29807,2188 @@
       <c r="BT239" s="25"/>
       <c r="BU239" s="6"/>
     </row>
-    <row r="240" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:73" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO240" s="27"/>
       <c r="AP240" s="27"/>
       <c r="AQ240" s="27"/>
       <c r="AS240" s="27"/>
       <c r="AZ240" s="27"/>
     </row>
-    <row r="241" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO241" s="27"/>
       <c r="AP241" s="27"/>
       <c r="AQ241" s="27"/>
       <c r="AS241" s="27"/>
       <c r="AZ241" s="27"/>
     </row>
-    <row r="242" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO242" s="27"/>
       <c r="AP242" s="27"/>
       <c r="AQ242" s="27"/>
       <c r="AS242" s="27"/>
       <c r="AZ242" s="27"/>
     </row>
-    <row r="243" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO243" s="27"/>
       <c r="AP243" s="27"/>
       <c r="AQ243" s="27"/>
       <c r="AS243" s="27"/>
       <c r="AZ243" s="27"/>
     </row>
-    <row r="244" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO244" s="27"/>
       <c r="AP244" s="27"/>
       <c r="AQ244" s="27"/>
       <c r="AS244" s="27"/>
       <c r="AZ244" s="27"/>
     </row>
-    <row r="245" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO245" s="27"/>
       <c r="AP245" s="27"/>
       <c r="AQ245" s="27"/>
       <c r="AS245" s="27"/>
       <c r="AZ245" s="27"/>
     </row>
-    <row r="246" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO246" s="27"/>
       <c r="AP246" s="27"/>
       <c r="AQ246" s="27"/>
       <c r="AS246" s="27"/>
       <c r="AZ246" s="27"/>
     </row>
-    <row r="247" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO247" s="27"/>
       <c r="AP247" s="27"/>
       <c r="AQ247" s="27"/>
       <c r="AS247" s="27"/>
       <c r="AZ247" s="27"/>
     </row>
-    <row r="248" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO248" s="27"/>
       <c r="AP248" s="27"/>
       <c r="AQ248" s="27"/>
       <c r="AS248" s="27"/>
       <c r="AZ248" s="27"/>
     </row>
-    <row r="249" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO249" s="27"/>
       <c r="AP249" s="27"/>
       <c r="AQ249" s="27"/>
       <c r="AS249" s="27"/>
       <c r="AZ249" s="27"/>
     </row>
-    <row r="250" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO250" s="27"/>
       <c r="AP250" s="27"/>
       <c r="AQ250" s="27"/>
       <c r="AS250" s="27"/>
       <c r="AZ250" s="27"/>
     </row>
-    <row r="251" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO251" s="27"/>
       <c r="AP251" s="27"/>
       <c r="AQ251" s="27"/>
       <c r="AS251" s="27"/>
       <c r="AZ251" s="27"/>
     </row>
-    <row r="252" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO252" s="27"/>
       <c r="AP252" s="27"/>
       <c r="AQ252" s="27"/>
       <c r="AS252" s="27"/>
       <c r="AZ252" s="27"/>
     </row>
-    <row r="253" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO253" s="27"/>
       <c r="AP253" s="27"/>
       <c r="AQ253" s="27"/>
       <c r="AS253" s="27"/>
       <c r="AZ253" s="27"/>
     </row>
-    <row r="254" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO254" s="27"/>
       <c r="AP254" s="27"/>
       <c r="AQ254" s="27"/>
       <c r="AS254" s="27"/>
       <c r="AZ254" s="27"/>
     </row>
-    <row r="255" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO255" s="27"/>
       <c r="AP255" s="27"/>
       <c r="AQ255" s="27"/>
       <c r="AS255" s="27"/>
       <c r="AZ255" s="27"/>
     </row>
-    <row r="256" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO256" s="27"/>
       <c r="AP256" s="27"/>
       <c r="AQ256" s="27"/>
       <c r="AS256" s="27"/>
       <c r="AZ256" s="27"/>
     </row>
-    <row r="257" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO257" s="27"/>
       <c r="AP257" s="27"/>
       <c r="AQ257" s="27"/>
       <c r="AS257" s="27"/>
       <c r="AZ257" s="27"/>
     </row>
-    <row r="258" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO258" s="27"/>
       <c r="AP258" s="27"/>
       <c r="AQ258" s="27"/>
       <c r="AS258" s="27"/>
       <c r="AZ258" s="27"/>
     </row>
-    <row r="259" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO259" s="27"/>
       <c r="AP259" s="27"/>
       <c r="AQ259" s="27"/>
       <c r="AS259" s="27"/>
       <c r="AZ259" s="27"/>
     </row>
-    <row r="260" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO260" s="27"/>
       <c r="AP260" s="27"/>
       <c r="AQ260" s="27"/>
       <c r="AS260" s="27"/>
       <c r="AZ260" s="27"/>
     </row>
-    <row r="261" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO261" s="27"/>
       <c r="AP261" s="27"/>
       <c r="AQ261" s="27"/>
       <c r="AS261" s="27"/>
       <c r="AZ261" s="27"/>
     </row>
-    <row r="262" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO262" s="27"/>
       <c r="AP262" s="27"/>
       <c r="AQ262" s="27"/>
       <c r="AS262" s="27"/>
       <c r="AZ262" s="27"/>
     </row>
-    <row r="263" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO263" s="27"/>
       <c r="AP263" s="27"/>
       <c r="AQ263" s="27"/>
       <c r="AS263" s="27"/>
       <c r="AZ263" s="27"/>
     </row>
-    <row r="264" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO264" s="27"/>
       <c r="AP264" s="27"/>
       <c r="AQ264" s="27"/>
       <c r="AS264" s="27"/>
       <c r="AZ264" s="27"/>
     </row>
-    <row r="265" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO265" s="27"/>
       <c r="AP265" s="27"/>
       <c r="AQ265" s="27"/>
       <c r="AS265" s="27"/>
       <c r="AZ265" s="27"/>
     </row>
-    <row r="266" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO266" s="27"/>
       <c r="AP266" s="27"/>
       <c r="AQ266" s="27"/>
       <c r="AS266" s="27"/>
       <c r="AZ266" s="27"/>
     </row>
-    <row r="267" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO267" s="27"/>
       <c r="AP267" s="27"/>
       <c r="AQ267" s="27"/>
       <c r="AS267" s="27"/>
       <c r="AZ267" s="27"/>
     </row>
-    <row r="268" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO268" s="27"/>
       <c r="AP268" s="27"/>
       <c r="AQ268" s="27"/>
       <c r="AS268" s="27"/>
       <c r="AZ268" s="27"/>
     </row>
-    <row r="269" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO269" s="27"/>
       <c r="AP269" s="27"/>
       <c r="AQ269" s="27"/>
       <c r="AS269" s="27"/>
       <c r="AZ269" s="27"/>
     </row>
-    <row r="270" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO270" s="27"/>
       <c r="AP270" s="27"/>
       <c r="AQ270" s="27"/>
       <c r="AS270" s="27"/>
       <c r="AZ270" s="27"/>
     </row>
-    <row r="271" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO271" s="27"/>
       <c r="AP271" s="27"/>
       <c r="AQ271" s="27"/>
       <c r="AS271" s="27"/>
       <c r="AZ271" s="27"/>
     </row>
-    <row r="272" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO272" s="27"/>
       <c r="AP272" s="27"/>
       <c r="AQ272" s="27"/>
       <c r="AS272" s="27"/>
       <c r="AZ272" s="27"/>
     </row>
-    <row r="273" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO273" s="27"/>
       <c r="AP273" s="27"/>
       <c r="AQ273" s="27"/>
       <c r="AS273" s="27"/>
       <c r="AZ273" s="27"/>
     </row>
-    <row r="274" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO274" s="27"/>
       <c r="AP274" s="27"/>
       <c r="AQ274" s="27"/>
       <c r="AS274" s="27"/>
       <c r="AZ274" s="27"/>
     </row>
-    <row r="275" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO275" s="27"/>
       <c r="AP275" s="27"/>
       <c r="AQ275" s="27"/>
       <c r="AS275" s="27"/>
       <c r="AZ275" s="27"/>
     </row>
-    <row r="276" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO276" s="27"/>
       <c r="AP276" s="27"/>
       <c r="AQ276" s="27"/>
       <c r="AS276" s="27"/>
       <c r="AZ276" s="27"/>
     </row>
-    <row r="277" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO277" s="27"/>
       <c r="AP277" s="27"/>
       <c r="AQ277" s="27"/>
       <c r="AS277" s="27"/>
       <c r="AZ277" s="27"/>
     </row>
-    <row r="278" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO278" s="27"/>
       <c r="AP278" s="27"/>
       <c r="AQ278" s="27"/>
       <c r="AS278" s="27"/>
       <c r="AZ278" s="27"/>
     </row>
-    <row r="279" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO279" s="27"/>
       <c r="AP279" s="27"/>
       <c r="AQ279" s="27"/>
       <c r="AS279" s="27"/>
       <c r="AZ279" s="27"/>
     </row>
-    <row r="280" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO280" s="27"/>
       <c r="AP280" s="27"/>
       <c r="AQ280" s="27"/>
       <c r="AS280" s="27"/>
       <c r="AZ280" s="27"/>
     </row>
-    <row r="281" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO281" s="27"/>
       <c r="AP281" s="27"/>
       <c r="AQ281" s="27"/>
       <c r="AS281" s="27"/>
       <c r="AZ281" s="27"/>
     </row>
-    <row r="282" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO282" s="27"/>
       <c r="AP282" s="27"/>
       <c r="AQ282" s="27"/>
       <c r="AS282" s="27"/>
       <c r="AZ282" s="27"/>
     </row>
-    <row r="283" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO283" s="27"/>
       <c r="AP283" s="27"/>
       <c r="AQ283" s="27"/>
       <c r="AS283" s="27"/>
       <c r="AZ283" s="27"/>
     </row>
-    <row r="284" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO284" s="27"/>
       <c r="AP284" s="27"/>
       <c r="AQ284" s="27"/>
       <c r="AS284" s="27"/>
       <c r="AZ284" s="27"/>
     </row>
-    <row r="285" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO285" s="27"/>
       <c r="AP285" s="27"/>
       <c r="AQ285" s="27"/>
       <c r="AS285" s="27"/>
       <c r="AZ285" s="27"/>
     </row>
-    <row r="286" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO286" s="27"/>
       <c r="AP286" s="27"/>
       <c r="AQ286" s="27"/>
       <c r="AS286" s="27"/>
       <c r="AZ286" s="27"/>
     </row>
-    <row r="287" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO287" s="27"/>
       <c r="AP287" s="27"/>
       <c r="AQ287" s="27"/>
       <c r="AS287" s="27"/>
       <c r="AZ287" s="27"/>
     </row>
-    <row r="288" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO288" s="27"/>
       <c r="AP288" s="27"/>
       <c r="AQ288" s="27"/>
       <c r="AS288" s="27"/>
       <c r="AZ288" s="27"/>
     </row>
-    <row r="289" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO289" s="27"/>
       <c r="AP289" s="27"/>
       <c r="AQ289" s="27"/>
       <c r="AS289" s="27"/>
       <c r="AZ289" s="27"/>
     </row>
-    <row r="290" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO290" s="27"/>
       <c r="AP290" s="27"/>
       <c r="AQ290" s="27"/>
       <c r="AS290" s="27"/>
       <c r="AZ290" s="27"/>
     </row>
-    <row r="291" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO291" s="27"/>
       <c r="AP291" s="27"/>
       <c r="AQ291" s="27"/>
       <c r="AS291" s="27"/>
       <c r="AZ291" s="27"/>
     </row>
-    <row r="292" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO292" s="27"/>
       <c r="AP292" s="27"/>
       <c r="AQ292" s="27"/>
       <c r="AS292" s="27"/>
       <c r="AZ292" s="27"/>
     </row>
-    <row r="293" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO293" s="27"/>
       <c r="AP293" s="27"/>
       <c r="AQ293" s="27"/>
       <c r="AS293" s="27"/>
       <c r="AZ293" s="27"/>
     </row>
-    <row r="294" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO294" s="27"/>
       <c r="AP294" s="27"/>
       <c r="AQ294" s="27"/>
       <c r="AS294" s="27"/>
       <c r="AZ294" s="27"/>
     </row>
-    <row r="295" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO295" s="27"/>
       <c r="AP295" s="27"/>
       <c r="AQ295" s="27"/>
       <c r="AS295" s="27"/>
       <c r="AZ295" s="27"/>
     </row>
-    <row r="296" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO296" s="27"/>
       <c r="AP296" s="27"/>
       <c r="AQ296" s="27"/>
       <c r="AS296" s="27"/>
       <c r="AZ296" s="27"/>
     </row>
-    <row r="297" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO297" s="27"/>
       <c r="AP297" s="27"/>
       <c r="AQ297" s="27"/>
       <c r="AS297" s="27"/>
       <c r="AZ297" s="27"/>
     </row>
-    <row r="298" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO298" s="27"/>
       <c r="AP298" s="27"/>
       <c r="AQ298" s="27"/>
       <c r="AS298" s="27"/>
       <c r="AZ298" s="27"/>
     </row>
-    <row r="299" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO299" s="27"/>
       <c r="AP299" s="27"/>
       <c r="AQ299" s="27"/>
       <c r="AS299" s="27"/>
       <c r="AZ299" s="27"/>
     </row>
-    <row r="300" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO300" s="27"/>
       <c r="AP300" s="27"/>
       <c r="AQ300" s="27"/>
       <c r="AS300" s="27"/>
       <c r="AZ300" s="27"/>
     </row>
-    <row r="301" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO301" s="27"/>
       <c r="AP301" s="27"/>
       <c r="AQ301" s="27"/>
       <c r="AS301" s="27"/>
       <c r="AZ301" s="27"/>
     </row>
-    <row r="302" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO302" s="27"/>
       <c r="AP302" s="27"/>
       <c r="AQ302" s="27"/>
       <c r="AS302" s="27"/>
       <c r="AZ302" s="27"/>
     </row>
-    <row r="303" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO303" s="27"/>
       <c r="AP303" s="27"/>
       <c r="AQ303" s="27"/>
       <c r="AS303" s="27"/>
       <c r="AZ303" s="27"/>
     </row>
-    <row r="304" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO304" s="27"/>
       <c r="AP304" s="27"/>
       <c r="AQ304" s="27"/>
       <c r="AS304" s="27"/>
       <c r="AZ304" s="27"/>
     </row>
-    <row r="305" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO305" s="27"/>
       <c r="AP305" s="27"/>
       <c r="AQ305" s="27"/>
       <c r="AS305" s="27"/>
       <c r="AZ305" s="27"/>
     </row>
-    <row r="306" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO306" s="27"/>
       <c r="AP306" s="27"/>
       <c r="AQ306" s="27"/>
       <c r="AS306" s="27"/>
       <c r="AZ306" s="27"/>
     </row>
-    <row r="307" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO307" s="27"/>
       <c r="AP307" s="27"/>
       <c r="AQ307" s="27"/>
       <c r="AS307" s="27"/>
       <c r="AZ307" s="27"/>
     </row>
-    <row r="308" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO308" s="27"/>
       <c r="AP308" s="27"/>
       <c r="AQ308" s="27"/>
       <c r="AS308" s="27"/>
       <c r="AZ308" s="27"/>
     </row>
-    <row r="309" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO309" s="27"/>
       <c r="AP309" s="27"/>
       <c r="AQ309" s="27"/>
       <c r="AS309" s="27"/>
       <c r="AZ309" s="27"/>
     </row>
-    <row r="310" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO310" s="27"/>
       <c r="AP310" s="27"/>
       <c r="AQ310" s="27"/>
       <c r="AS310" s="27"/>
       <c r="AZ310" s="27"/>
     </row>
-    <row r="311" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO311" s="27"/>
       <c r="AP311" s="27"/>
       <c r="AQ311" s="27"/>
       <c r="AS311" s="27"/>
       <c r="AZ311" s="27"/>
     </row>
-    <row r="312" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO312" s="27"/>
       <c r="AP312" s="27"/>
       <c r="AQ312" s="27"/>
       <c r="AS312" s="27"/>
       <c r="AZ312" s="27"/>
     </row>
-    <row r="313" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO313" s="27"/>
       <c r="AP313" s="27"/>
       <c r="AQ313" s="27"/>
       <c r="AS313" s="27"/>
       <c r="AZ313" s="27"/>
     </row>
-    <row r="314" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO314" s="27"/>
       <c r="AP314" s="27"/>
       <c r="AQ314" s="27"/>
       <c r="AS314" s="27"/>
       <c r="AZ314" s="27"/>
     </row>
-    <row r="315" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO315" s="27"/>
       <c r="AP315" s="27"/>
       <c r="AQ315" s="27"/>
       <c r="AS315" s="27"/>
       <c r="AZ315" s="27"/>
     </row>
-    <row r="316" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO316" s="27"/>
       <c r="AP316" s="27"/>
       <c r="AQ316" s="27"/>
       <c r="AS316" s="27"/>
       <c r="AZ316" s="27"/>
     </row>
-    <row r="317" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO317" s="27"/>
       <c r="AP317" s="27"/>
       <c r="AQ317" s="27"/>
       <c r="AS317" s="27"/>
       <c r="AZ317" s="27"/>
     </row>
-    <row r="318" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO318" s="27"/>
       <c r="AP318" s="27"/>
       <c r="AQ318" s="27"/>
       <c r="AS318" s="27"/>
       <c r="AZ318" s="27"/>
     </row>
-    <row r="319" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO319" s="27"/>
       <c r="AP319" s="27"/>
       <c r="AQ319" s="27"/>
       <c r="AS319" s="27"/>
       <c r="AZ319" s="27"/>
     </row>
-    <row r="320" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO320" s="27"/>
       <c r="AP320" s="27"/>
       <c r="AQ320" s="27"/>
       <c r="AS320" s="27"/>
       <c r="AZ320" s="27"/>
     </row>
-    <row r="321" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO321" s="27"/>
       <c r="AP321" s="27"/>
       <c r="AQ321" s="27"/>
       <c r="AS321" s="27"/>
       <c r="AZ321" s="27"/>
     </row>
-    <row r="322" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO322" s="27"/>
       <c r="AP322" s="27"/>
       <c r="AQ322" s="27"/>
       <c r="AS322" s="27"/>
       <c r="AZ322" s="27"/>
     </row>
-    <row r="323" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO323" s="27"/>
       <c r="AP323" s="27"/>
       <c r="AQ323" s="27"/>
       <c r="AS323" s="27"/>
       <c r="AZ323" s="27"/>
     </row>
-    <row r="324" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO324" s="27"/>
       <c r="AP324" s="27"/>
       <c r="AQ324" s="27"/>
       <c r="AS324" s="27"/>
       <c r="AZ324" s="27"/>
     </row>
-    <row r="325" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO325" s="27"/>
       <c r="AP325" s="27"/>
       <c r="AQ325" s="27"/>
       <c r="AS325" s="27"/>
       <c r="AZ325" s="27"/>
     </row>
-    <row r="326" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO326" s="27"/>
       <c r="AP326" s="27"/>
       <c r="AQ326" s="27"/>
       <c r="AS326" s="27"/>
       <c r="AZ326" s="27"/>
     </row>
-    <row r="327" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO327" s="27"/>
       <c r="AP327" s="27"/>
       <c r="AQ327" s="27"/>
       <c r="AS327" s="27"/>
       <c r="AZ327" s="27"/>
     </row>
-    <row r="328" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO328" s="27"/>
       <c r="AP328" s="27"/>
       <c r="AQ328" s="27"/>
       <c r="AS328" s="27"/>
       <c r="AZ328" s="27"/>
     </row>
-    <row r="329" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO329" s="27"/>
       <c r="AP329" s="27"/>
       <c r="AQ329" s="27"/>
       <c r="AS329" s="27"/>
       <c r="AZ329" s="27"/>
     </row>
-    <row r="330" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO330" s="27"/>
       <c r="AP330" s="27"/>
       <c r="AQ330" s="27"/>
       <c r="AS330" s="27"/>
       <c r="AZ330" s="27"/>
     </row>
-    <row r="331" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO331" s="27"/>
       <c r="AP331" s="27"/>
       <c r="AQ331" s="27"/>
       <c r="AS331" s="27"/>
       <c r="AZ331" s="27"/>
     </row>
-    <row r="332" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO332" s="27"/>
       <c r="AP332" s="27"/>
       <c r="AQ332" s="27"/>
       <c r="AS332" s="27"/>
       <c r="AZ332" s="27"/>
     </row>
-    <row r="333" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO333" s="27"/>
       <c r="AP333" s="27"/>
       <c r="AQ333" s="27"/>
       <c r="AS333" s="27"/>
       <c r="AZ333" s="27"/>
     </row>
-    <row r="334" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO334" s="27"/>
       <c r="AP334" s="27"/>
       <c r="AQ334" s="27"/>
       <c r="AS334" s="27"/>
       <c r="AZ334" s="27"/>
     </row>
-    <row r="335" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO335" s="27"/>
       <c r="AP335" s="27"/>
       <c r="AQ335" s="27"/>
       <c r="AS335" s="27"/>
       <c r="AZ335" s="27"/>
     </row>
-    <row r="336" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO336" s="27"/>
       <c r="AP336" s="27"/>
       <c r="AQ336" s="27"/>
       <c r="AS336" s="27"/>
       <c r="AZ336" s="27"/>
     </row>
-    <row r="337" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO337" s="27"/>
       <c r="AP337" s="27"/>
       <c r="AQ337" s="27"/>
       <c r="AS337" s="27"/>
       <c r="AZ337" s="27"/>
     </row>
-    <row r="338" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO338" s="27"/>
       <c r="AP338" s="27"/>
       <c r="AQ338" s="27"/>
       <c r="AS338" s="27"/>
       <c r="AZ338" s="27"/>
     </row>
-    <row r="339" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO339" s="27"/>
       <c r="AP339" s="27"/>
       <c r="AQ339" s="27"/>
       <c r="AS339" s="27"/>
       <c r="AZ339" s="27"/>
     </row>
-    <row r="340" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO340" s="27"/>
       <c r="AP340" s="27"/>
       <c r="AQ340" s="27"/>
       <c r="AS340" s="27"/>
       <c r="AZ340" s="27"/>
     </row>
-    <row r="341" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO341" s="27"/>
       <c r="AP341" s="27"/>
       <c r="AQ341" s="27"/>
       <c r="AS341" s="27"/>
       <c r="AZ341" s="27"/>
     </row>
-    <row r="342" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO342" s="27"/>
       <c r="AP342" s="27"/>
       <c r="AQ342" s="27"/>
       <c r="AS342" s="27"/>
       <c r="AZ342" s="27"/>
     </row>
-    <row r="343" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO343" s="27"/>
       <c r="AP343" s="27"/>
       <c r="AQ343" s="27"/>
       <c r="AS343" s="27"/>
       <c r="AZ343" s="27"/>
     </row>
-    <row r="344" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO344" s="27"/>
       <c r="AP344" s="27"/>
       <c r="AQ344" s="27"/>
       <c r="AS344" s="27"/>
       <c r="AZ344" s="27"/>
     </row>
-    <row r="345" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO345" s="27"/>
       <c r="AP345" s="27"/>
       <c r="AQ345" s="27"/>
       <c r="AS345" s="27"/>
       <c r="AZ345" s="27"/>
     </row>
-    <row r="346" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO346" s="27"/>
       <c r="AP346" s="27"/>
       <c r="AQ346" s="27"/>
       <c r="AS346" s="27"/>
       <c r="AZ346" s="27"/>
     </row>
-    <row r="347" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO347" s="27"/>
       <c r="AP347" s="27"/>
       <c r="AQ347" s="27"/>
       <c r="AS347" s="27"/>
       <c r="AZ347" s="27"/>
     </row>
-    <row r="348" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO348" s="27"/>
       <c r="AP348" s="27"/>
       <c r="AQ348" s="27"/>
       <c r="AS348" s="27"/>
       <c r="AZ348" s="27"/>
     </row>
-    <row r="349" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO349" s="27"/>
       <c r="AP349" s="27"/>
       <c r="AQ349" s="27"/>
       <c r="AS349" s="27"/>
       <c r="AZ349" s="27"/>
     </row>
-    <row r="350" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO350" s="27"/>
       <c r="AP350" s="27"/>
       <c r="AQ350" s="27"/>
       <c r="AS350" s="27"/>
       <c r="AZ350" s="27"/>
     </row>
-    <row r="351" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO351" s="27"/>
       <c r="AP351" s="27"/>
       <c r="AQ351" s="27"/>
       <c r="AS351" s="27"/>
       <c r="AZ351" s="27"/>
     </row>
-    <row r="352" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO352" s="27"/>
       <c r="AP352" s="27"/>
       <c r="AQ352" s="27"/>
       <c r="AS352" s="27"/>
       <c r="AZ352" s="27"/>
     </row>
-    <row r="353" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO353" s="27"/>
       <c r="AP353" s="27"/>
       <c r="AQ353" s="27"/>
       <c r="AS353" s="27"/>
       <c r="AZ353" s="27"/>
     </row>
-    <row r="354" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO354" s="27"/>
       <c r="AP354" s="27"/>
       <c r="AQ354" s="27"/>
       <c r="AS354" s="27"/>
       <c r="AZ354" s="27"/>
     </row>
-    <row r="355" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO355" s="27"/>
       <c r="AP355" s="27"/>
       <c r="AQ355" s="27"/>
       <c r="AS355" s="27"/>
       <c r="AZ355" s="27"/>
     </row>
-    <row r="356" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO356" s="27"/>
       <c r="AP356" s="27"/>
       <c r="AQ356" s="27"/>
       <c r="AS356" s="27"/>
       <c r="AZ356" s="27"/>
     </row>
-    <row r="357" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO357" s="27"/>
       <c r="AP357" s="27"/>
       <c r="AQ357" s="27"/>
       <c r="AS357" s="27"/>
       <c r="AZ357" s="27"/>
     </row>
-    <row r="358" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO358" s="27"/>
       <c r="AP358" s="27"/>
       <c r="AQ358" s="27"/>
       <c r="AS358" s="27"/>
       <c r="AZ358" s="27"/>
     </row>
-    <row r="359" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO359" s="27"/>
       <c r="AP359" s="27"/>
       <c r="AQ359" s="27"/>
       <c r="AS359" s="27"/>
       <c r="AZ359" s="27"/>
     </row>
-    <row r="360" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO360" s="27"/>
       <c r="AP360" s="27"/>
       <c r="AQ360" s="27"/>
       <c r="AS360" s="27"/>
       <c r="AZ360" s="27"/>
     </row>
-    <row r="361" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO361" s="27"/>
       <c r="AP361" s="27"/>
       <c r="AQ361" s="27"/>
       <c r="AS361" s="27"/>
       <c r="AZ361" s="27"/>
     </row>
-    <row r="362" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO362" s="27"/>
       <c r="AP362" s="27"/>
       <c r="AQ362" s="27"/>
       <c r="AS362" s="27"/>
       <c r="AZ362" s="27"/>
     </row>
-    <row r="363" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO363" s="27"/>
       <c r="AP363" s="27"/>
       <c r="AQ363" s="27"/>
       <c r="AS363" s="27"/>
       <c r="AZ363" s="27"/>
     </row>
-    <row r="364" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO364" s="27"/>
       <c r="AP364" s="27"/>
       <c r="AQ364" s="27"/>
       <c r="AS364" s="27"/>
       <c r="AZ364" s="27"/>
     </row>
-    <row r="365" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO365" s="27"/>
       <c r="AP365" s="27"/>
       <c r="AQ365" s="27"/>
       <c r="AS365" s="27"/>
       <c r="AZ365" s="27"/>
     </row>
-    <row r="366" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO366" s="27"/>
       <c r="AP366" s="27"/>
       <c r="AQ366" s="27"/>
       <c r="AS366" s="27"/>
       <c r="AZ366" s="27"/>
     </row>
-    <row r="367" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO367" s="27"/>
       <c r="AP367" s="27"/>
       <c r="AQ367" s="27"/>
       <c r="AS367" s="27"/>
       <c r="AZ367" s="27"/>
     </row>
-    <row r="368" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO368" s="27"/>
       <c r="AP368" s="27"/>
       <c r="AQ368" s="27"/>
       <c r="AS368" s="27"/>
       <c r="AZ368" s="27"/>
     </row>
-    <row r="369" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO369" s="27"/>
       <c r="AP369" s="27"/>
       <c r="AQ369" s="27"/>
       <c r="AS369" s="27"/>
       <c r="AZ369" s="27"/>
     </row>
-    <row r="370" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO370" s="27"/>
       <c r="AP370" s="27"/>
       <c r="AQ370" s="27"/>
       <c r="AS370" s="27"/>
       <c r="AZ370" s="27"/>
     </row>
-    <row r="371" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO371" s="27"/>
       <c r="AP371" s="27"/>
       <c r="AQ371" s="27"/>
       <c r="AS371" s="27"/>
       <c r="AZ371" s="27"/>
     </row>
-    <row r="372" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO372" s="27"/>
       <c r="AP372" s="27"/>
       <c r="AQ372" s="27"/>
       <c r="AS372" s="27"/>
       <c r="AZ372" s="27"/>
     </row>
-    <row r="373" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO373" s="27"/>
       <c r="AP373" s="27"/>
       <c r="AQ373" s="27"/>
       <c r="AS373" s="27"/>
       <c r="AZ373" s="27"/>
     </row>
-    <row r="374" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO374" s="27"/>
       <c r="AP374" s="27"/>
       <c r="AQ374" s="27"/>
       <c r="AS374" s="27"/>
       <c r="AZ374" s="27"/>
     </row>
-    <row r="375" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO375" s="27"/>
       <c r="AP375" s="27"/>
       <c r="AQ375" s="27"/>
       <c r="AS375" s="27"/>
       <c r="AZ375" s="27"/>
     </row>
-    <row r="376" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO376" s="27"/>
       <c r="AP376" s="27"/>
       <c r="AQ376" s="27"/>
       <c r="AS376" s="27"/>
       <c r="AZ376" s="27"/>
     </row>
-    <row r="377" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO377" s="27"/>
       <c r="AP377" s="27"/>
       <c r="AQ377" s="27"/>
       <c r="AS377" s="27"/>
       <c r="AZ377" s="27"/>
     </row>
-    <row r="378" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO378" s="27"/>
       <c r="AP378" s="27"/>
       <c r="AQ378" s="27"/>
       <c r="AS378" s="27"/>
       <c r="AZ378" s="27"/>
     </row>
-    <row r="379" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO379" s="27"/>
       <c r="AP379" s="27"/>
       <c r="AQ379" s="27"/>
       <c r="AS379" s="27"/>
       <c r="AZ379" s="27"/>
     </row>
-    <row r="380" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO380" s="27"/>
       <c r="AP380" s="27"/>
       <c r="AQ380" s="27"/>
       <c r="AS380" s="27"/>
       <c r="AZ380" s="27"/>
     </row>
-    <row r="381" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO381" s="27"/>
       <c r="AP381" s="27"/>
       <c r="AQ381" s="27"/>
       <c r="AS381" s="27"/>
       <c r="AZ381" s="27"/>
     </row>
-    <row r="382" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO382" s="27"/>
       <c r="AP382" s="27"/>
       <c r="AQ382" s="27"/>
       <c r="AS382" s="27"/>
       <c r="AZ382" s="27"/>
     </row>
-    <row r="383" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO383" s="27"/>
       <c r="AP383" s="27"/>
       <c r="AQ383" s="27"/>
       <c r="AS383" s="27"/>
       <c r="AZ383" s="27"/>
     </row>
-    <row r="384" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO384" s="27"/>
       <c r="AP384" s="27"/>
       <c r="AQ384" s="27"/>
       <c r="AS384" s="27"/>
       <c r="AZ384" s="27"/>
     </row>
-    <row r="385" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO385" s="27"/>
       <c r="AP385" s="27"/>
       <c r="AQ385" s="27"/>
       <c r="AS385" s="27"/>
       <c r="AZ385" s="27"/>
     </row>
-    <row r="386" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO386" s="27"/>
       <c r="AP386" s="27"/>
       <c r="AQ386" s="27"/>
       <c r="AS386" s="27"/>
       <c r="AZ386" s="27"/>
     </row>
-    <row r="387" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO387" s="27"/>
       <c r="AP387" s="27"/>
       <c r="AQ387" s="27"/>
       <c r="AS387" s="27"/>
       <c r="AZ387" s="27"/>
     </row>
-    <row r="388" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO388" s="27"/>
       <c r="AP388" s="27"/>
       <c r="AQ388" s="27"/>
       <c r="AS388" s="27"/>
       <c r="AZ388" s="27"/>
     </row>
-    <row r="389" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO389" s="27"/>
       <c r="AP389" s="27"/>
       <c r="AQ389" s="27"/>
       <c r="AS389" s="27"/>
       <c r="AZ389" s="27"/>
     </row>
-    <row r="390" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO390" s="27"/>
       <c r="AP390" s="27"/>
       <c r="AQ390" s="27"/>
       <c r="AS390" s="27"/>
       <c r="AZ390" s="27"/>
     </row>
-    <row r="391" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO391" s="27"/>
       <c r="AP391" s="27"/>
       <c r="AQ391" s="27"/>
       <c r="AS391" s="27"/>
       <c r="AZ391" s="27"/>
     </row>
-    <row r="392" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO392" s="27"/>
       <c r="AP392" s="27"/>
       <c r="AQ392" s="27"/>
       <c r="AS392" s="27"/>
       <c r="AZ392" s="27"/>
     </row>
-    <row r="393" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO393" s="27"/>
       <c r="AP393" s="27"/>
       <c r="AQ393" s="27"/>
       <c r="AS393" s="27"/>
       <c r="AZ393" s="27"/>
     </row>
-    <row r="394" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO394" s="27"/>
       <c r="AP394" s="27"/>
       <c r="AQ394" s="27"/>
       <c r="AS394" s="27"/>
       <c r="AZ394" s="27"/>
     </row>
-    <row r="395" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO395" s="27"/>
       <c r="AP395" s="27"/>
       <c r="AQ395" s="27"/>
       <c r="AS395" s="27"/>
       <c r="AZ395" s="27"/>
     </row>
-    <row r="396" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO396" s="27"/>
       <c r="AP396" s="27"/>
       <c r="AQ396" s="27"/>
       <c r="AS396" s="27"/>
       <c r="AZ396" s="27"/>
     </row>
-    <row r="397" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO397" s="27"/>
       <c r="AP397" s="27"/>
       <c r="AQ397" s="27"/>
       <c r="AS397" s="27"/>
       <c r="AZ397" s="27"/>
     </row>
-    <row r="398" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO398" s="27"/>
       <c r="AP398" s="27"/>
       <c r="AQ398" s="27"/>
       <c r="AS398" s="27"/>
       <c r="AZ398" s="27"/>
     </row>
-    <row r="399" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO399" s="27"/>
       <c r="AP399" s="27"/>
       <c r="AQ399" s="27"/>
       <c r="AS399" s="27"/>
       <c r="AZ399" s="27"/>
     </row>
-    <row r="400" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO400" s="27"/>
       <c r="AP400" s="27"/>
       <c r="AQ400" s="27"/>
       <c r="AS400" s="27"/>
       <c r="AZ400" s="27"/>
     </row>
-    <row r="401" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO401" s="27"/>
       <c r="AP401" s="27"/>
       <c r="AQ401" s="27"/>
       <c r="AS401" s="27"/>
       <c r="AZ401" s="27"/>
     </row>
-    <row r="402" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO402" s="27"/>
       <c r="AP402" s="27"/>
       <c r="AQ402" s="27"/>
       <c r="AS402" s="27"/>
       <c r="AZ402" s="27"/>
     </row>
-    <row r="403" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO403" s="27"/>
       <c r="AP403" s="27"/>
       <c r="AQ403" s="27"/>
       <c r="AS403" s="27"/>
       <c r="AZ403" s="27"/>
     </row>
-    <row r="404" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO404" s="27"/>
       <c r="AP404" s="27"/>
       <c r="AQ404" s="27"/>
       <c r="AS404" s="27"/>
       <c r="AZ404" s="27"/>
     </row>
-    <row r="405" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO405" s="27"/>
       <c r="AP405" s="27"/>
       <c r="AQ405" s="27"/>
       <c r="AS405" s="27"/>
       <c r="AZ405" s="27"/>
     </row>
-    <row r="406" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO406" s="27"/>
       <c r="AP406" s="27"/>
       <c r="AQ406" s="27"/>
       <c r="AS406" s="27"/>
       <c r="AZ406" s="27"/>
     </row>
-    <row r="407" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO407" s="27"/>
       <c r="AP407" s="27"/>
       <c r="AQ407" s="27"/>
       <c r="AS407" s="27"/>
       <c r="AZ407" s="27"/>
     </row>
-    <row r="408" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO408" s="27"/>
       <c r="AP408" s="27"/>
       <c r="AQ408" s="27"/>
       <c r="AS408" s="27"/>
       <c r="AZ408" s="27"/>
     </row>
-    <row r="409" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO409" s="27"/>
       <c r="AP409" s="27"/>
       <c r="AQ409" s="27"/>
       <c r="AS409" s="27"/>
       <c r="AZ409" s="27"/>
     </row>
-    <row r="410" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO410" s="27"/>
       <c r="AP410" s="27"/>
       <c r="AQ410" s="27"/>
       <c r="AS410" s="27"/>
       <c r="AZ410" s="27"/>
     </row>
-    <row r="411" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO411" s="27"/>
       <c r="AP411" s="27"/>
       <c r="AQ411" s="27"/>
       <c r="AS411" s="27"/>
       <c r="AZ411" s="27"/>
     </row>
-    <row r="412" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO412" s="27"/>
       <c r="AP412" s="27"/>
       <c r="AQ412" s="27"/>
       <c r="AS412" s="27"/>
       <c r="AZ412" s="27"/>
     </row>
-    <row r="413" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO413" s="27"/>
       <c r="AP413" s="27"/>
       <c r="AQ413" s="27"/>
       <c r="AS413" s="27"/>
       <c r="AZ413" s="27"/>
     </row>
-    <row r="414" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO414" s="27"/>
       <c r="AP414" s="27"/>
       <c r="AQ414" s="27"/>
       <c r="AS414" s="27"/>
       <c r="AZ414" s="27"/>
     </row>
-    <row r="415" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO415" s="27"/>
       <c r="AP415" s="27"/>
       <c r="AQ415" s="27"/>
       <c r="AS415" s="27"/>
       <c r="AZ415" s="27"/>
     </row>
-    <row r="416" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="41:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO416" s="27"/>
       <c r="AP416" s="27"/>
       <c r="AQ416" s="27"/>
       <c r="AS416" s="27"/>
     </row>
-    <row r="417" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO417" s="27"/>
       <c r="AP417" s="27"/>
       <c r="AQ417" s="27"/>
       <c r="AS417" s="27"/>
     </row>
-    <row r="418" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AO418" s="27"/>
       <c r="AP418" s="27"/>
       <c r="AQ418" s="27"/>
       <c r="AS418" s="27"/>
     </row>
-    <row r="419" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN419" s="1"/>
       <c r="AO419" s="5"/>
       <c r="AP419" s="1"/>
       <c r="AQ419" s="1"/>
       <c r="AS419" s="27"/>
     </row>
-    <row r="420" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN420" s="1"/>
       <c r="AO420" s="5"/>
       <c r="AP420" s="1"/>
       <c r="AQ420" s="1"/>
       <c r="AS420" s="27"/>
     </row>
-    <row r="421" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN421" s="1"/>
       <c r="AO421" s="5"/>
       <c r="AP421" s="1"/>
       <c r="AQ421" s="1"/>
       <c r="AS421" s="27"/>
     </row>
-    <row r="422" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN422" s="1"/>
       <c r="AO422" s="5"/>
       <c r="AP422" s="1"/>
       <c r="AQ422" s="1"/>
       <c r="AS422" s="27"/>
     </row>
-    <row r="423" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN423" s="1"/>
       <c r="AO423" s="5"/>
       <c r="AP423" s="1"/>
       <c r="AQ423" s="1"/>
       <c r="AS423" s="27"/>
     </row>
-    <row r="424" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN424" s="1"/>
       <c r="AO424" s="5"/>
       <c r="AP424" s="1"/>
       <c r="AQ424" s="1"/>
       <c r="AS424" s="27"/>
     </row>
-    <row r="425" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN425" s="1"/>
       <c r="AO425" s="5"/>
       <c r="AP425" s="1"/>
       <c r="AQ425" s="1"/>
       <c r="AS425" s="27"/>
     </row>
-    <row r="426" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN426" s="1"/>
       <c r="AO426" s="5"/>
       <c r="AP426" s="1"/>
       <c r="AQ426" s="1"/>
       <c r="AS426" s="27"/>
     </row>
-    <row r="427" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN427" s="1"/>
       <c r="AO427" s="5"/>
       <c r="AP427" s="1"/>
       <c r="AQ427" s="1"/>
       <c r="AS427" s="27"/>
     </row>
-    <row r="428" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN428" s="1"/>
       <c r="AO428" s="5"/>
       <c r="AP428" s="1"/>
       <c r="AQ428" s="1"/>
       <c r="AS428" s="27"/>
     </row>
-    <row r="429" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN429" s="1"/>
       <c r="AO429" s="5"/>
       <c r="AP429" s="1"/>
       <c r="AQ429" s="1"/>
       <c r="AS429" s="27"/>
     </row>
-    <row r="430" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN430" s="1"/>
       <c r="AO430" s="5"/>
       <c r="AP430" s="1"/>
       <c r="AQ430" s="1"/>
       <c r="AS430" s="27"/>
     </row>
-    <row r="431" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN431" s="1"/>
       <c r="AO431" s="5"/>
       <c r="AP431" s="1"/>
       <c r="AQ431" s="1"/>
       <c r="AS431" s="27"/>
     </row>
-    <row r="432" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN432" s="1"/>
       <c r="AO432" s="5"/>
       <c r="AP432" s="1"/>
       <c r="AQ432" s="1"/>
       <c r="AS432" s="27"/>
     </row>
-    <row r="433" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN433" s="1"/>
       <c r="AO433" s="5"/>
       <c r="AP433" s="1"/>
       <c r="AQ433" s="1"/>
       <c r="AS433" s="27"/>
     </row>
-    <row r="434" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN434" s="1"/>
       <c r="AO434" s="5"/>
       <c r="AP434" s="1"/>
       <c r="AQ434" s="1"/>
       <c r="AS434" s="27"/>
     </row>
-    <row r="435" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN435" s="1"/>
       <c r="AO435" s="5"/>
       <c r="AP435" s="1"/>
       <c r="AQ435" s="1"/>
       <c r="AS435" s="27"/>
     </row>
-    <row r="436" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN436" s="1"/>
       <c r="AO436" s="5"/>
       <c r="AP436" s="1"/>
       <c r="AQ436" s="1"/>
       <c r="AS436" s="27"/>
     </row>
-    <row r="437" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN437" s="1"/>
       <c r="AO437" s="5"/>
       <c r="AP437" s="1"/>
       <c r="AQ437" s="1"/>
       <c r="AS437" s="27"/>
     </row>
-    <row r="438" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN438" s="1"/>
       <c r="AO438" s="5"/>
       <c r="AP438" s="1"/>
       <c r="AQ438" s="1"/>
       <c r="AS438" s="27"/>
     </row>
-    <row r="439" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN439" s="1"/>
       <c r="AO439" s="5"/>
       <c r="AP439" s="1"/>
       <c r="AQ439" s="1"/>
       <c r="AS439" s="27"/>
     </row>
-    <row r="440" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN440" s="1"/>
       <c r="AO440" s="5"/>
       <c r="AP440" s="1"/>
       <c r="AQ440" s="1"/>
       <c r="AS440" s="27"/>
     </row>
-    <row r="441" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN441" s="1"/>
       <c r="AO441" s="5"/>
       <c r="AP441" s="1"/>
       <c r="AQ441" s="1"/>
       <c r="AS441" s="27"/>
     </row>
-    <row r="442" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN442" s="1"/>
       <c r="AO442" s="5"/>
       <c r="AP442" s="1"/>
       <c r="AQ442" s="1"/>
       <c r="AS442" s="27"/>
     </row>
-    <row r="443" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN443" s="1"/>
       <c r="AO443" s="5"/>
       <c r="AP443" s="1"/>
       <c r="AQ443" s="1"/>
       <c r="AS443" s="27"/>
     </row>
-    <row r="444" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN444" s="1"/>
       <c r="AO444" s="5"/>
       <c r="AP444" s="1"/>
       <c r="AQ444" s="1"/>
       <c r="AS444" s="27"/>
     </row>
-    <row r="445" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN445" s="1"/>
       <c r="AO445" s="5"/>
       <c r="AP445" s="1"/>
       <c r="AQ445" s="1"/>
       <c r="AS445" s="27"/>
     </row>
-    <row r="446" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN446" s="1"/>
       <c r="AO446" s="5"/>
       <c r="AP446" s="1"/>
       <c r="AQ446" s="1"/>
       <c r="AS446" s="27"/>
     </row>
-    <row r="447" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN447" s="1"/>
       <c r="AO447" s="5"/>
       <c r="AP447" s="1"/>
       <c r="AQ447" s="1"/>
       <c r="AS447" s="27"/>
     </row>
-    <row r="448" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN448" s="1"/>
       <c r="AO448" s="5"/>
       <c r="AP448" s="1"/>
       <c r="AQ448" s="1"/>
       <c r="AS448" s="27"/>
     </row>
-    <row r="449" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN449" s="1"/>
       <c r="AO449" s="5"/>
       <c r="AP449" s="1"/>
       <c r="AQ449" s="1"/>
       <c r="AS449" s="27"/>
     </row>
-    <row r="450" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN450" s="1"/>
       <c r="AO450" s="5"/>
       <c r="AP450" s="1"/>
       <c r="AQ450" s="1"/>
       <c r="AS450" s="27"/>
     </row>
-    <row r="451" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN451" s="1"/>
       <c r="AO451" s="5"/>
       <c r="AP451" s="1"/>
       <c r="AQ451" s="1"/>
       <c r="AS451" s="27"/>
     </row>
-    <row r="452" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN452" s="1"/>
       <c r="AO452" s="5"/>
       <c r="AP452" s="1"/>
       <c r="AQ452" s="1"/>
       <c r="AS452" s="27"/>
     </row>
-    <row r="453" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN453" s="1"/>
       <c r="AO453" s="5"/>
       <c r="AP453" s="1"/>
       <c r="AQ453" s="1"/>
       <c r="AS453" s="27"/>
     </row>
-    <row r="454" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN454" s="1"/>
       <c r="AO454" s="5"/>
       <c r="AP454" s="1"/>
       <c r="AQ454" s="1"/>
       <c r="AS454" s="27"/>
     </row>
-    <row r="455" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN455" s="1"/>
       <c r="AO455" s="5"/>
       <c r="AP455" s="1"/>
       <c r="AQ455" s="1"/>
       <c r="AS455" s="27"/>
     </row>
-    <row r="456" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN456" s="1"/>
       <c r="AO456" s="5"/>
       <c r="AP456" s="1"/>
       <c r="AQ456" s="1"/>
       <c r="AS456" s="27"/>
     </row>
-    <row r="457" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN457" s="1"/>
       <c r="AO457" s="5"/>
       <c r="AP457" s="1"/>
       <c r="AQ457" s="1"/>
       <c r="AS457" s="27"/>
     </row>
-    <row r="458" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN458" s="1"/>
       <c r="AO458" s="5"/>
       <c r="AP458" s="1"/>
       <c r="AQ458" s="1"/>
       <c r="AS458" s="27"/>
     </row>
-    <row r="459" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN459" s="1"/>
       <c r="AO459" s="5"/>
       <c r="AP459" s="1"/>
       <c r="AQ459" s="1"/>
       <c r="AS459" s="27"/>
     </row>
-    <row r="460" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN460" s="1"/>
       <c r="AO460" s="5"/>
       <c r="AP460" s="1"/>
       <c r="AQ460" s="1"/>
       <c r="AS460" s="27"/>
     </row>
-    <row r="461" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN461" s="1"/>
       <c r="AO461" s="5"/>
       <c r="AP461" s="1"/>
       <c r="AQ461" s="1"/>
       <c r="AS461" s="27"/>
     </row>
-    <row r="462" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN462" s="1"/>
       <c r="AO462" s="5"/>
       <c r="AP462" s="1"/>
       <c r="AQ462" s="1"/>
       <c r="AS462" s="27"/>
     </row>
-    <row r="463" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN463" s="1"/>
       <c r="AO463" s="5"/>
       <c r="AP463" s="1"/>
       <c r="AQ463" s="1"/>
       <c r="AS463" s="27"/>
     </row>
-    <row r="464" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN464" s="1"/>
       <c r="AO464" s="5"/>
       <c r="AP464" s="1"/>
       <c r="AQ464" s="1"/>
       <c r="AS464" s="27"/>
     </row>
-    <row r="465" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN465" s="1"/>
       <c r="AO465" s="5"/>
       <c r="AP465" s="1"/>
       <c r="AQ465" s="1"/>
       <c r="AS465" s="27"/>
     </row>
-    <row r="466" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN466" s="1"/>
       <c r="AO466" s="5"/>
       <c r="AP466" s="1"/>
       <c r="AQ466" s="1"/>
       <c r="AS466" s="27"/>
     </row>
-    <row r="467" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN467" s="1"/>
       <c r="AO467" s="5"/>
       <c r="AP467" s="1"/>
       <c r="AQ467" s="1"/>
       <c r="AS467" s="27"/>
     </row>
-    <row r="468" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN468" s="1"/>
       <c r="AO468" s="5"/>
       <c r="AP468" s="1"/>
       <c r="AQ468" s="1"/>
       <c r="AS468" s="27"/>
     </row>
-    <row r="469" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN469" s="1"/>
       <c r="AO469" s="5"/>
       <c r="AP469" s="1"/>
       <c r="AQ469" s="1"/>
       <c r="AS469" s="27"/>
     </row>
-    <row r="470" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN470" s="1"/>
       <c r="AO470" s="5"/>
       <c r="AP470" s="1"/>
       <c r="AQ470" s="1"/>
       <c r="AS470" s="27"/>
     </row>
-    <row r="471" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN471" s="1"/>
       <c r="AO471" s="5"/>
       <c r="AP471" s="1"/>
       <c r="AQ471" s="1"/>
       <c r="AS471" s="27"/>
     </row>
-    <row r="472" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN472" s="1"/>
       <c r="AO472" s="5"/>
       <c r="AP472" s="1"/>
       <c r="AQ472" s="1"/>
       <c r="AS472" s="27"/>
     </row>
-    <row r="473" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN473" s="1"/>
       <c r="AO473" s="5"/>
       <c r="AP473" s="1"/>
       <c r="AQ473" s="1"/>
       <c r="AS473" s="27"/>
     </row>
-    <row r="474" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN474" s="1"/>
       <c r="AO474" s="5"/>
       <c r="AP474" s="1"/>
       <c r="AQ474" s="1"/>
       <c r="AS474" s="27"/>
     </row>
-    <row r="475" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN475" s="1"/>
       <c r="AO475" s="5"/>
       <c r="AP475" s="1"/>
       <c r="AQ475" s="1"/>
       <c r="AS475" s="27"/>
     </row>
-    <row r="476" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN476" s="1"/>
       <c r="AO476" s="5"/>
       <c r="AP476" s="1"/>
       <c r="AQ476" s="1"/>
       <c r="AS476" s="27"/>
     </row>
-    <row r="477" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN477" s="1"/>
       <c r="AO477" s="5"/>
       <c r="AP477" s="1"/>
       <c r="AQ477" s="1"/>
       <c r="AS477" s="27"/>
     </row>
-    <row r="478" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN478" s="1"/>
       <c r="AO478" s="5"/>
       <c r="AP478" s="1"/>
       <c r="AQ478" s="1"/>
       <c r="AS478" s="27"/>
     </row>
-    <row r="479" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN479" s="1"/>
       <c r="AO479" s="5"/>
       <c r="AP479" s="1"/>
       <c r="AQ479" s="1"/>
       <c r="AS479" s="27"/>
     </row>
-    <row r="480" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN480" s="1"/>
       <c r="AO480" s="5"/>
       <c r="AP480" s="1"/>
       <c r="AQ480" s="1"/>
       <c r="AS480" s="27"/>
     </row>
-    <row r="481" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN481" s="1"/>
       <c r="AO481" s="5"/>
       <c r="AP481" s="1"/>
       <c r="AQ481" s="1"/>
       <c r="AS481" s="27"/>
     </row>
-    <row r="482" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN482" s="1"/>
       <c r="AO482" s="5"/>
       <c r="AP482" s="1"/>
       <c r="AQ482" s="1"/>
       <c r="AS482" s="27"/>
     </row>
-    <row r="483" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN483" s="1"/>
       <c r="AO483" s="5"/>
       <c r="AP483" s="1"/>
       <c r="AQ483" s="1"/>
       <c r="AS483" s="27"/>
     </row>
-    <row r="484" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN484" s="1"/>
       <c r="AO484" s="5"/>
       <c r="AP484" s="1"/>
       <c r="AQ484" s="1"/>
       <c r="AS484" s="27"/>
     </row>
-    <row r="485" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN485" s="1"/>
       <c r="AO485" s="5"/>
       <c r="AP485" s="1"/>
       <c r="AQ485" s="1"/>
       <c r="AS485" s="27"/>
     </row>
-    <row r="486" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN486" s="1"/>
       <c r="AO486" s="5"/>
       <c r="AP486" s="1"/>
       <c r="AQ486" s="1"/>
       <c r="AS486" s="27"/>
     </row>
-    <row r="487" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN487" s="1"/>
       <c r="AO487" s="5"/>
       <c r="AP487" s="1"/>
       <c r="AQ487" s="1"/>
       <c r="AS487" s="27"/>
     </row>
-    <row r="488" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN488" s="1"/>
       <c r="AO488" s="5"/>
       <c r="AP488" s="1"/>
       <c r="AQ488" s="1"/>
       <c r="AS488" s="27"/>
     </row>
-    <row r="489" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN489" s="1"/>
       <c r="AO489" s="5"/>
       <c r="AP489" s="1"/>
       <c r="AQ489" s="1"/>
       <c r="AS489" s="27"/>
     </row>
-    <row r="490" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN490" s="1"/>
       <c r="AO490" s="5"/>
       <c r="AP490" s="1"/>
       <c r="AQ490" s="1"/>
       <c r="AS490" s="27"/>
     </row>
-    <row r="491" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN491" s="1"/>
       <c r="AO491" s="5"/>
       <c r="AP491" s="1"/>
       <c r="AQ491" s="1"/>
       <c r="AS491" s="27"/>
     </row>
-    <row r="492" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN492" s="1"/>
       <c r="AO492" s="5"/>
       <c r="AP492" s="1"/>
       <c r="AQ492" s="1"/>
       <c r="AS492" s="27"/>
     </row>
-    <row r="493" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN493" s="1"/>
       <c r="AO493" s="5"/>
       <c r="AP493" s="1"/>
       <c r="AQ493" s="1"/>
       <c r="AS493" s="27"/>
     </row>
-    <row r="494" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN494" s="1"/>
       <c r="AO494" s="5"/>
       <c r="AP494" s="1"/>
       <c r="AQ494" s="1"/>
       <c r="AS494" s="27"/>
     </row>
-    <row r="495" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN495" s="1"/>
       <c r="AO495" s="5"/>
       <c r="AP495" s="1"/>
       <c r="AQ495" s="1"/>
       <c r="AS495" s="27"/>
     </row>
-    <row r="496" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN496" s="1"/>
       <c r="AO496" s="5"/>
       <c r="AP496" s="1"/>
       <c r="AQ496" s="1"/>
       <c r="AS496" s="27"/>
     </row>
-    <row r="497" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN497" s="1"/>
       <c r="AO497" s="5"/>
       <c r="AP497" s="1"/>
       <c r="AQ497" s="1"/>
       <c r="AS497" s="27"/>
     </row>
-    <row r="498" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN498" s="1"/>
       <c r="AO498" s="5"/>
       <c r="AP498" s="1"/>
       <c r="AQ498" s="1"/>
       <c r="AS498" s="27"/>
     </row>
-    <row r="499" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN499" s="1"/>
       <c r="AO499" s="5"/>
       <c r="AP499" s="1"/>
       <c r="AQ499" s="1"/>
       <c r="AS499" s="27"/>
     </row>
-    <row r="500" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN500" s="1"/>
       <c r="AO500" s="5"/>
       <c r="AP500" s="1"/>
       <c r="AQ500" s="1"/>
       <c r="AS500" s="27"/>
     </row>
-    <row r="501" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN501" s="1"/>
       <c r="AO501" s="5"/>
       <c r="AP501" s="1"/>
       <c r="AQ501" s="1"/>
       <c r="AS501" s="27"/>
     </row>
-    <row r="502" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN502" s="1"/>
       <c r="AO502" s="5"/>
       <c r="AP502" s="1"/>
       <c r="AQ502" s="1"/>
       <c r="AS502" s="27"/>
     </row>
-    <row r="503" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN503" s="1"/>
       <c r="AO503" s="5"/>
       <c r="AP503" s="1"/>
       <c r="AQ503" s="1"/>
       <c r="AS503" s="27"/>
     </row>
-    <row r="504" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN504" s="1"/>
       <c r="AO504" s="5"/>
       <c r="AP504" s="1"/>
       <c r="AQ504" s="1"/>
       <c r="AS504" s="27"/>
     </row>
-    <row r="505" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN505" s="1"/>
       <c r="AO505" s="5"/>
       <c r="AP505" s="1"/>
       <c r="AQ505" s="1"/>
       <c r="AS505" s="27"/>
     </row>
-    <row r="506" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN506" s="1"/>
       <c r="AO506" s="5"/>
       <c r="AP506" s="1"/>
       <c r="AQ506" s="1"/>
       <c r="AS506" s="27"/>
     </row>
-    <row r="507" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN507" s="1"/>
       <c r="AO507" s="5"/>
       <c r="AP507" s="1"/>
       <c r="AQ507" s="1"/>
       <c r="AS507" s="27"/>
     </row>
-    <row r="508" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN508" s="1"/>
       <c r="AO508" s="5"/>
       <c r="AP508" s="1"/>
       <c r="AQ508" s="1"/>
       <c r="AS508" s="27"/>
     </row>
-    <row r="509" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN509" s="1"/>
       <c r="AO509" s="5"/>
       <c r="AP509" s="1"/>
       <c r="AQ509" s="1"/>
       <c r="AS509" s="27"/>
     </row>
-    <row r="510" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN510" s="1"/>
       <c r="AO510" s="5"/>
       <c r="AP510" s="1"/>
       <c r="AQ510" s="1"/>
       <c r="AS510" s="27"/>
     </row>
-    <row r="511" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN511" s="1"/>
       <c r="AO511" s="5"/>
       <c r="AP511" s="1"/>
       <c r="AQ511" s="1"/>
       <c r="AS511" s="27"/>
     </row>
-    <row r="512" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN512" s="1"/>
       <c r="AO512" s="5"/>
       <c r="AP512" s="1"/>
       <c r="AQ512" s="1"/>
       <c r="AS512" s="27"/>
     </row>
-    <row r="513" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN513" s="1"/>
       <c r="AO513" s="5"/>
       <c r="AP513" s="1"/>
       <c r="AQ513" s="1"/>
       <c r="AS513" s="27"/>
     </row>
-    <row r="514" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN514" s="1"/>
       <c r="AO514" s="5"/>
       <c r="AP514" s="1"/>
       <c r="AQ514" s="1"/>
       <c r="AS514" s="27"/>
     </row>
-    <row r="515" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN515" s="1"/>
       <c r="AO515" s="5"/>
       <c r="AP515" s="1"/>
       <c r="AQ515" s="1"/>
       <c r="AS515" s="27"/>
     </row>
-    <row r="516" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN516" s="1"/>
       <c r="AO516" s="5"/>
       <c r="AP516" s="1"/>
       <c r="AQ516" s="1"/>
       <c r="AS516" s="27"/>
     </row>
-    <row r="517" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN517" s="1"/>
       <c r="AO517" s="5"/>
       <c r="AP517" s="1"/>
       <c r="AQ517" s="1"/>
       <c r="AS517" s="27"/>
     </row>
-    <row r="518" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN518" s="1"/>
       <c r="AO518" s="5"/>
       <c r="AP518" s="1"/>
       <c r="AQ518" s="1"/>
       <c r="AS518" s="27"/>
     </row>
-    <row r="519" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN519" s="1"/>
       <c r="AO519" s="5"/>
       <c r="AP519" s="1"/>
       <c r="AQ519" s="1"/>
       <c r="AS519" s="27"/>
     </row>
-    <row r="520" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN520" s="1"/>
       <c r="AO520" s="5"/>
       <c r="AP520" s="1"/>
       <c r="AQ520" s="1"/>
       <c r="AS520" s="27"/>
     </row>
-    <row r="521" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN521" s="1"/>
       <c r="AO521" s="5"/>
       <c r="AP521" s="1"/>
       <c r="AQ521" s="1"/>
       <c r="AS521" s="27"/>
     </row>
-    <row r="522" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN522" s="1"/>
       <c r="AO522" s="5"/>
       <c r="AP522" s="1"/>
       <c r="AQ522" s="1"/>
       <c r="AS522" s="27"/>
     </row>
-    <row r="523" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN523" s="1"/>
       <c r="AO523" s="5"/>
       <c r="AP523" s="1"/>
       <c r="AQ523" s="1"/>
       <c r="AS523" s="27"/>
     </row>
-    <row r="524" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN524" s="1"/>
       <c r="AO524" s="5"/>
       <c r="AP524" s="1"/>
       <c r="AQ524" s="1"/>
       <c r="AS524" s="27"/>
     </row>
-    <row r="525" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN525" s="1"/>
       <c r="AO525" s="5"/>
       <c r="AP525" s="1"/>
       <c r="AQ525" s="1"/>
       <c r="AS525" s="27"/>
     </row>
-    <row r="526" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN526" s="1"/>
       <c r="AO526" s="5"/>
       <c r="AP526" s="1"/>
       <c r="AQ526" s="1"/>
       <c r="AS526" s="27"/>
     </row>
-    <row r="527" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN527" s="1"/>
       <c r="AO527" s="5"/>
       <c r="AP527" s="1"/>
       <c r="AQ527" s="1"/>
       <c r="AS527" s="27"/>
     </row>
-    <row r="528" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN528" s="1"/>
       <c r="AO528" s="5"/>
       <c r="AP528" s="1"/>
       <c r="AQ528" s="1"/>
       <c r="AS528" s="27"/>
     </row>
-    <row r="529" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN529" s="1"/>
       <c r="AO529" s="5"/>
       <c r="AP529" s="1"/>
       <c r="AQ529" s="1"/>
       <c r="AS529" s="27"/>
     </row>
-    <row r="530" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN530" s="1"/>
       <c r="AO530" s="5"/>
       <c r="AP530" s="1"/>
       <c r="AQ530" s="1"/>
       <c r="AS530" s="27"/>
     </row>
-    <row r="531" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN531" s="1"/>
       <c r="AO531" s="5"/>
       <c r="AP531" s="1"/>
       <c r="AQ531" s="1"/>
       <c r="AS531" s="27"/>
     </row>
-    <row r="532" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN532" s="1"/>
       <c r="AO532" s="5"/>
       <c r="AP532" s="1"/>
       <c r="AQ532" s="1"/>
       <c r="AS532" s="27"/>
     </row>
-    <row r="533" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN533" s="1"/>
       <c r="AO533" s="5"/>
       <c r="AP533" s="1"/>
       <c r="AQ533" s="1"/>
       <c r="AS533" s="27"/>
     </row>
-    <row r="534" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN534" s="1"/>
       <c r="AO534" s="5"/>
       <c r="AP534" s="1"/>
       <c r="AQ534" s="1"/>
       <c r="AS534" s="27"/>
     </row>
-    <row r="535" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN535" s="1"/>
       <c r="AO535" s="5"/>
       <c r="AP535" s="1"/>
       <c r="AQ535" s="1"/>
       <c r="AS535" s="27"/>
     </row>
-    <row r="536" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN536" s="1"/>
       <c r="AO536" s="5"/>
       <c r="AP536" s="1"/>
       <c r="AQ536" s="1"/>
       <c r="AS536" s="27"/>
     </row>
-    <row r="537" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN537" s="1"/>
       <c r="AO537" s="5"/>
       <c r="AP537" s="1"/>
       <c r="AQ537" s="1"/>
       <c r="AS537" s="27"/>
     </row>
-    <row r="538" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN538" s="1"/>
       <c r="AO538" s="5"/>
       <c r="AP538" s="1"/>
       <c r="AQ538" s="1"/>
       <c r="AS538" s="27"/>
     </row>
-    <row r="539" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN539" s="1"/>
       <c r="AO539" s="5"/>
       <c r="AP539" s="1"/>
       <c r="AQ539" s="1"/>
       <c r="AS539" s="27"/>
     </row>
-    <row r="540" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN540" s="1"/>
       <c r="AO540" s="5"/>
       <c r="AP540" s="1"/>
       <c r="AQ540" s="1"/>
       <c r="AS540" s="27"/>
     </row>
-    <row r="541" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN541" s="1"/>
       <c r="AO541" s="5"/>
       <c r="AP541" s="1"/>
       <c r="AQ541" s="1"/>
       <c r="AS541" s="27"/>
     </row>
-    <row r="542" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN542" s="1"/>
       <c r="AO542" s="5"/>
       <c r="AP542" s="1"/>
       <c r="AQ542" s="1"/>
       <c r="AS542" s="27"/>
     </row>
-    <row r="543" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN543" s="1"/>
       <c r="AO543" s="5"/>
       <c r="AP543" s="1"/>
       <c r="AQ543" s="1"/>
       <c r="AS543" s="27"/>
     </row>
-    <row r="544" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN544" s="1"/>
       <c r="AO544" s="5"/>
       <c r="AP544" s="1"/>
       <c r="AQ544" s="1"/>
       <c r="AS544" s="27"/>
     </row>
-    <row r="545" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN545" s="1"/>
       <c r="AO545" s="5"/>
       <c r="AP545" s="1"/>
       <c r="AQ545" s="1"/>
       <c r="AS545" s="27"/>
     </row>
-    <row r="546" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN546" s="1"/>
       <c r="AO546" s="5"/>
       <c r="AP546" s="1"/>
       <c r="AQ546" s="1"/>
     </row>
-    <row r="547" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN547" s="1"/>
       <c r="AO547" s="5"/>
       <c r="AP547" s="1"/>
       <c r="AQ547" s="1"/>
     </row>
-    <row r="548" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN548" s="1"/>
       <c r="AO548" s="5"/>
       <c r="AP548" s="1"/>
       <c r="AQ548" s="1"/>
     </row>
-    <row r="549" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN549" s="1"/>
       <c r="AO549" s="5"/>
       <c r="AP549" s="1"/>
       <c r="AQ549" s="1"/>
     </row>
-    <row r="550" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN550" s="1"/>
       <c r="AO550" s="5"/>
       <c r="AP550" s="1"/>
       <c r="AQ550" s="1"/>
     </row>
-    <row r="551" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN551" s="1"/>
       <c r="AO551" s="5"/>
       <c r="AP551" s="1"/>
       <c r="AQ551" s="1"/>
     </row>
-    <row r="552" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN552" s="1"/>
       <c r="AO552" s="5"/>
       <c r="AP552" s="1"/>
       <c r="AQ552" s="1"/>
     </row>
-    <row r="553" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="40:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN553" s="1"/>
       <c r="AO553" s="5"/>
       <c r="AP553" s="1"/>
@@ -31998,33 +31997,33 @@
   </sheetData>
   <autoFilter ref="C2:D2" xr:uid="{CC412B54-366C-48C5-A561-3550BE0946A4}"/>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="108" priority="381" operator="lessThanOrEqual">
-      <formula>$G38</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="378" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="379" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="107" priority="379" operator="greaterThanOrEqual">
       <formula>$H38</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="380" operator="between">
+    <cfRule type="cellIs" dxfId="106" priority="380" operator="between">
       <formula>$G38</formula>
       <formula>#REF!</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="381" operator="lessThanOrEqual">
+      <formula>$G38</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="cellIs" dxfId="104" priority="156" operator="equal">
-      <formula>$H$1</formula>
+    <cfRule type="cellIs" dxfId="104" priority="153" operator="greaterThanOrEqual">
+      <formula>$G24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="155" operator="lessThanOrEqual">
-      <formula>$F24</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="154" operator="between">
+    <cfRule type="cellIs" dxfId="103" priority="154" operator="between">
       <formula>$F24</formula>
       <formula>$H24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="153" operator="greaterThanOrEqual">
-      <formula>$G24</formula>
+    <cfRule type="cellIs" dxfId="102" priority="155" operator="lessThanOrEqual">
+      <formula>$F24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="156" operator="equal">
+      <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J65">
@@ -32040,15 +32039,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J66:J67 J70 M70:Q70 J99 M99:Q99 J203 M203:Q203">
-    <cfRule type="cellIs" dxfId="97" priority="178" operator="lessThanOrEqual">
-      <formula>$G66</formula>
+    <cfRule type="cellIs" dxfId="97" priority="176" operator="greaterThanOrEqual">
+      <formula>$H66</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="96" priority="177" operator="between">
       <formula>$G66</formula>
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="176" operator="greaterThanOrEqual">
-      <formula>$H66</formula>
+    <cfRule type="cellIs" dxfId="95" priority="178" operator="lessThanOrEqual">
+      <formula>$G66</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J76">
@@ -32057,78 +32056,78 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J108 J130 M130:Q130 J132 M132:Q132">
-    <cfRule type="cellIs" dxfId="93" priority="163" operator="lessThanOrEqual">
-      <formula>$F108</formula>
+    <cfRule type="cellIs" dxfId="93" priority="161" operator="greaterThanOrEqual">
+      <formula>$G108</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="92" priority="162" operator="between">
       <formula>$F108</formula>
       <formula>$H108</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="161" operator="greaterThanOrEqual">
-      <formula>$G108</formula>
+    <cfRule type="cellIs" dxfId="91" priority="163" operator="lessThanOrEqual">
+      <formula>$F108</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125">
-    <cfRule type="cellIs" dxfId="90" priority="168" operator="between">
+    <cfRule type="cellIs" dxfId="90" priority="167" operator="greaterThanOrEqual">
+      <formula>$G125</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="168" operator="between">
       <formula>$F125</formula>
       <formula>$H125</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="167" operator="greaterThanOrEqual">
-      <formula>$G125</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="88" priority="169" operator="lessThanOrEqual">
       <formula>$F125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J134">
-    <cfRule type="cellIs" dxfId="87" priority="172" operator="lessThanOrEqual">
-      <formula>$F134</formula>
+    <cfRule type="cellIs" dxfId="87" priority="170" operator="greaterThanOrEqual">
+      <formula>$G134</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="86" priority="171" operator="between">
       <formula>$F134</formula>
       <formula>$H134</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="170" operator="greaterThanOrEqual">
-      <formula>$G134</formula>
+    <cfRule type="cellIs" dxfId="85" priority="172" operator="lessThanOrEqual">
+      <formula>$F134</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J151:J152">
-    <cfRule type="cellIs" dxfId="84" priority="152" operator="lessThanOrEqual">
-      <formula>#REF!</formula>
+    <cfRule type="cellIs" dxfId="84" priority="149" operator="equal">
+      <formula>$F$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="151" operator="between">
+    <cfRule type="cellIs" dxfId="83" priority="150" operator="greaterThanOrEqual">
+      <formula>$E151</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="151" operator="between">
       <formula>#REF!</formula>
       <formula>$F151</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="150" operator="greaterThanOrEqual">
-      <formula>$E151</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="149" operator="equal">
-      <formula>$F$1</formula>
+    <cfRule type="cellIs" dxfId="81" priority="152" operator="lessThanOrEqual">
+      <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J163:J164">
-    <cfRule type="cellIs" dxfId="80" priority="148" operator="lessThanOrEqual">
-      <formula>$F163</formula>
+    <cfRule type="cellIs" dxfId="80" priority="146" operator="greaterThanOrEqual">
+      <formula>$G163</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="79" priority="147" operator="between">
       <formula>$F163</formula>
       <formula>$H163</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="146" operator="greaterThanOrEqual">
-      <formula>$G163</formula>
+    <cfRule type="cellIs" dxfId="78" priority="148" operator="lessThanOrEqual">
+      <formula>$F163</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J217">
-    <cfRule type="cellIs" dxfId="77" priority="166" operator="lessThanOrEqual">
-      <formula>$F217</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="164" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="77" priority="164" operator="greaterThanOrEqual">
       <formula>$G217</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="165" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="165" operator="between">
       <formula>$F217</formula>
       <formula>$H217</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="166" operator="lessThanOrEqual">
+      <formula>$F217</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J236">
@@ -32144,42 +32143,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24:Q24">
-    <cfRule type="cellIs" dxfId="71" priority="123" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="120" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="71" priority="120" operator="greaterThanOrEqual">
       <formula>$G24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="121" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="121" operator="between">
       <formula>$F24</formula>
       <formula>$H24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="122" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="69" priority="122" operator="lessThanOrEqual">
       <formula>$F24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="123" operator="equal">
+      <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:Q65">
-    <cfRule type="cellIs" dxfId="67" priority="141" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="140" operator="greaterThanOrEqual">
+      <formula>$F65</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="141" operator="between">
       <formula>$E65</formula>
       <formula>$G65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="142" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="65" priority="142" operator="lessThanOrEqual">
       <formula>$E65</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="140" operator="greaterThanOrEqual">
-      <formula>$F65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M66:Q67">
-    <cfRule type="cellIs" dxfId="64" priority="78" operator="between">
+    <cfRule type="cellIs" dxfId="64" priority="77" operator="greaterThanOrEqual">
+      <formula>$H66</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="78" operator="between">
       <formula>$G66</formula>
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="79" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="62" priority="79" operator="lessThanOrEqual">
       <formula>$G66</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="77" operator="greaterThanOrEqual">
-      <formula>$H66</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M76:Q76">
@@ -32188,39 +32187,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M108:Q108">
-    <cfRule type="cellIs" dxfId="60" priority="130" operator="lessThanOrEqual">
-      <formula>$F108</formula>
+    <cfRule type="cellIs" dxfId="60" priority="128" operator="greaterThanOrEqual">
+      <formula>$G108</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="59" priority="129" operator="between">
       <formula>$F108</formula>
       <formula>$H108</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="128" operator="greaterThanOrEqual">
-      <formula>$G108</formula>
+    <cfRule type="cellIs" dxfId="58" priority="130" operator="lessThanOrEqual">
+      <formula>$F108</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M125:Q125">
-    <cfRule type="cellIs" dxfId="57" priority="135" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="134" operator="greaterThanOrEqual">
+      <formula>$G125</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="135" operator="between">
       <formula>$F125</formula>
       <formula>$H125</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="134" operator="greaterThanOrEqual">
-      <formula>$G125</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="55" priority="136" operator="lessThanOrEqual">
       <formula>$F125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M134:Q134">
-    <cfRule type="cellIs" dxfId="54" priority="138" operator="between">
+    <cfRule type="cellIs" dxfId="54" priority="137" operator="greaterThanOrEqual">
+      <formula>$G134</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="138" operator="between">
       <formula>$F134</formula>
       <formula>$H134</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="139" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="139" operator="lessThanOrEqual">
       <formula>$F134</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="137" operator="greaterThanOrEqual">
-      <formula>$G134</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151:Q152">
@@ -32266,39 +32265,39 @@
     <cfRule type="cellIs" dxfId="41" priority="125" operator="greaterThanOrEqual">
       <formula>$G236</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="127" operator="lessThanOrEqual">
-      <formula>$F236</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="126" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="126" operator="between">
       <formula>$F236</formula>
       <formula>$H236</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="127" operator="lessThanOrEqual">
+      <formula>$F236</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T24:W24">
-    <cfRule type="cellIs" dxfId="38" priority="44" operator="equal">
-      <formula>$H$1</formula>
+    <cfRule type="cellIs" dxfId="38" priority="41" operator="greaterThanOrEqual">
+      <formula>$G24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="43" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="37" priority="42" operator="between">
+      <formula>$F24</formula>
+      <formula>$H24</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="43" operator="lessThanOrEqual">
       <formula>$F24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="41" operator="greaterThanOrEqual">
-      <formula>$G24</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="42" operator="between">
-      <formula>$F24</formula>
-      <formula>$H24</formula>
+    <cfRule type="cellIs" dxfId="35" priority="44" operator="equal">
+      <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T65:W65">
     <cfRule type="cellIs" dxfId="34" priority="61" operator="greaterThanOrEqual">
       <formula>$F65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="63" operator="lessThanOrEqual">
-      <formula>$E65</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="62" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="62" operator="between">
       <formula>$E65</formula>
       <formula>$G65</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="63" operator="lessThanOrEqual">
+      <formula>$E65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T66:W67">
@@ -32317,12 +32316,12 @@
     <cfRule type="cellIs" dxfId="28" priority="67" operator="greaterThanOrEqual">
       <formula>$H70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="69" operator="lessThanOrEqual">
-      <formula>$G70</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="68" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="68" operator="between">
       <formula>$G70</formula>
       <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="69" operator="lessThanOrEqual">
+      <formula>$G70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T76:W76">
@@ -32334,36 +32333,36 @@
     <cfRule type="cellIs" dxfId="24" priority="49" operator="greaterThanOrEqual">
       <formula>$G108</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="51" operator="lessThanOrEqual">
-      <formula>$F108</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="50" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="50" operator="between">
       <formula>$F108</formula>
       <formula>$H108</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="51" operator="lessThanOrEqual">
+      <formula>$F108</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T125:W125">
-    <cfRule type="cellIs" dxfId="21" priority="57" operator="lessThanOrEqual">
-      <formula>$F125</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="55" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="21" priority="55" operator="greaterThanOrEqual">
       <formula>$G125</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="56" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="56" operator="between">
       <formula>$F125</formula>
       <formula>$H125</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="57" operator="lessThanOrEqual">
+      <formula>$F125</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T130:W130 T132:W132">
-    <cfRule type="cellIs" dxfId="18" priority="65" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="64" operator="greaterThanOrEqual">
+      <formula>$G130</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="65" operator="between">
       <formula>$F130</formula>
       <formula>$H130</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="66" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="66" operator="lessThanOrEqual">
       <formula>$F130</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="64" operator="greaterThanOrEqual">
-      <formula>$G130</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T134:W134">
@@ -32379,30 +32378,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T151:W152">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="lessThanOrEqual">
-      <formula>#REF!</formula>
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+      <formula>$F$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThanOrEqual">
+      <formula>$E151</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="between">
       <formula>#REF!</formula>
       <formula>$F151</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThanOrEqual">
-      <formula>$E151</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
-      <formula>$F$1</formula>
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThanOrEqual">
+      <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T163:W164">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThanOrEqual">
-      <formula>$F163</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThanOrEqual">
       <formula>$G163</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="between">
       <formula>$F163</formula>
       <formula>$H163</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThanOrEqual">
+      <formula>$F163</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T217:W217">
